--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7864.972151084165</v>
+        <v>8354.29571834524</v>
       </c>
       <c r="AB2" t="n">
-        <v>10761.20187519679</v>
+        <v>11430.71596735566</v>
       </c>
       <c r="AC2" t="n">
-        <v>9734.167871669293</v>
+        <v>10339.78447854142</v>
       </c>
       <c r="AD2" t="n">
-        <v>7864972.151084165</v>
+        <v>8354295.71834524</v>
       </c>
       <c r="AE2" t="n">
-        <v>10761201.87519679</v>
+        <v>11430715.96735566</v>
       </c>
       <c r="AF2" t="n">
         <v>1.625770508865405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.53333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>9734167.871669292</v>
+        <v>10339784.47854142</v>
       </c>
     </row>
     <row r="3">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2772.925830049357</v>
+        <v>3027.325897851928</v>
       </c>
       <c r="AB3" t="n">
-        <v>3794.039453527549</v>
+        <v>4142.120849633935</v>
       </c>
       <c r="AC3" t="n">
-        <v>3431.941653050553</v>
+        <v>3746.802649247841</v>
       </c>
       <c r="AD3" t="n">
-        <v>2772925.830049356</v>
+        <v>3027325.897851928</v>
       </c>
       <c r="AE3" t="n">
-        <v>3794039.453527549</v>
+        <v>4142120.849633935</v>
       </c>
       <c r="AF3" t="n">
         <v>3.051144838232109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3431941.653050553</v>
+        <v>3746802.649247841</v>
       </c>
     </row>
     <row r="4">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2164.102084375881</v>
+        <v>2389.169742756334</v>
       </c>
       <c r="AB4" t="n">
-        <v>2961.019945288865</v>
+        <v>3268.967444769502</v>
       </c>
       <c r="AC4" t="n">
-        <v>2678.424357528089</v>
+        <v>2956.981779865202</v>
       </c>
       <c r="AD4" t="n">
-        <v>2164102.084375881</v>
+        <v>2389169.742756334</v>
       </c>
       <c r="AE4" t="n">
-        <v>2961019.945288865</v>
+        <v>3268967.444769503</v>
       </c>
       <c r="AF4" t="n">
         <v>3.569462776183638e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.97083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2678424.357528089</v>
+        <v>2956981.779865202</v>
       </c>
     </row>
     <row r="5">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1926.027329911378</v>
+        <v>2131.552111169912</v>
       </c>
       <c r="AB5" t="n">
-        <v>2635.275563113638</v>
+        <v>2916.483635944989</v>
       </c>
       <c r="AC5" t="n">
-        <v>2383.768562002554</v>
+        <v>2638.13853104089</v>
       </c>
       <c r="AD5" t="n">
-        <v>1926027.329911378</v>
+        <v>2131552.111169912</v>
       </c>
       <c r="AE5" t="n">
-        <v>2635275.563113638</v>
+        <v>2916483.635944989</v>
       </c>
       <c r="AF5" t="n">
         <v>3.845195865268317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.81666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2383768.562002554</v>
+        <v>2638138.53104089</v>
       </c>
     </row>
     <row r="6">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1799.459634796485</v>
+        <v>1995.128574976967</v>
       </c>
       <c r="AB6" t="n">
-        <v>2462.100058884816</v>
+        <v>2729.822935144154</v>
       </c>
       <c r="AC6" t="n">
-        <v>2227.120684843984</v>
+        <v>2469.292465544548</v>
       </c>
       <c r="AD6" t="n">
-        <v>1799459.634796485</v>
+        <v>1995128.574976967</v>
       </c>
       <c r="AE6" t="n">
-        <v>2462100.058884816</v>
+        <v>2729822.935144154</v>
       </c>
       <c r="AF6" t="n">
         <v>4.019600810959856e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.04583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2227120.684843984</v>
+        <v>2469292.465544548</v>
       </c>
     </row>
     <row r="7">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1706.687379334651</v>
+        <v>1902.389473904056</v>
       </c>
       <c r="AB7" t="n">
-        <v>2335.16496613888</v>
+        <v>2602.933205695812</v>
       </c>
       <c r="AC7" t="n">
-        <v>2112.300099195199</v>
+        <v>2354.512913783902</v>
       </c>
       <c r="AD7" t="n">
-        <v>1706687.379334651</v>
+        <v>1902389.473904056</v>
       </c>
       <c r="AE7" t="n">
-        <v>2335164.96613888</v>
+        <v>2602933.205695813</v>
       </c>
       <c r="AF7" t="n">
         <v>4.135242967174332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.95833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2112300.099195199</v>
+        <v>2354512.913783902</v>
       </c>
     </row>
     <row r="8">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1655.360522425081</v>
+        <v>1841.240941335214</v>
       </c>
       <c r="AB8" t="n">
-        <v>2264.937296134092</v>
+        <v>2519.267085752258</v>
       </c>
       <c r="AC8" t="n">
-        <v>2048.774859450514</v>
+        <v>2278.831770901624</v>
       </c>
       <c r="AD8" t="n">
-        <v>1655360.522425081</v>
+        <v>1841240.941335214</v>
       </c>
       <c r="AE8" t="n">
-        <v>2264937.296134092</v>
+        <v>2519267.085752259</v>
       </c>
       <c r="AF8" t="n">
         <v>4.217736883170978e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.2125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2048774.859450514</v>
+        <v>2278831.770901624</v>
       </c>
     </row>
     <row r="9">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1603.142020876304</v>
+        <v>1789.089759594141</v>
       </c>
       <c r="AB9" t="n">
-        <v>2193.489638597355</v>
+        <v>2447.911538146363</v>
       </c>
       <c r="AC9" t="n">
-        <v>1984.146066071666</v>
+        <v>2214.286296611096</v>
       </c>
       <c r="AD9" t="n">
-        <v>1603142.020876304</v>
+        <v>1789089.759594142</v>
       </c>
       <c r="AE9" t="n">
-        <v>2193489.638597355</v>
+        <v>2447911.538146364</v>
       </c>
       <c r="AF9" t="n">
         <v>4.285540101798359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.62083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1984146.066071666</v>
+        <v>2214286.296611096</v>
       </c>
     </row>
     <row r="10">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1569.42011987923</v>
+        <v>1745.546182937795</v>
       </c>
       <c r="AB10" t="n">
-        <v>2147.349845947884</v>
+        <v>2388.333295558127</v>
       </c>
       <c r="AC10" t="n">
-        <v>1942.409790475054</v>
+        <v>2160.394117876892</v>
       </c>
       <c r="AD10" t="n">
-        <v>1569420.11987923</v>
+        <v>1745546.182937796</v>
       </c>
       <c r="AE10" t="n">
-        <v>2147349.845947884</v>
+        <v>2388333.295558127</v>
       </c>
       <c r="AF10" t="n">
         <v>4.333379039385455e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.21666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1942409.790475054</v>
+        <v>2160394.117876892</v>
       </c>
     </row>
     <row r="11">
@@ -6481,28 +6481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1529.155433766663</v>
+        <v>1715.06900706572</v>
       </c>
       <c r="AB11" t="n">
-        <v>2092.257926056087</v>
+        <v>2346.633078971848</v>
       </c>
       <c r="AC11" t="n">
-        <v>1892.575766095736</v>
+        <v>2122.673711434985</v>
       </c>
       <c r="AD11" t="n">
-        <v>1529155.433766663</v>
+        <v>1715069.00706572</v>
       </c>
       <c r="AE11" t="n">
-        <v>2092257.926056087</v>
+        <v>2346633.078971848</v>
       </c>
       <c r="AF11" t="n">
         <v>4.377451131493251e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.85416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1892575.766095736</v>
+        <v>2122673.711434986</v>
       </c>
     </row>
     <row r="12">
@@ -6587,28 +6587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1503.736351313192</v>
+        <v>1679.929734179462</v>
       </c>
       <c r="AB12" t="n">
-        <v>2057.478416032475</v>
+        <v>2298.55397557356</v>
       </c>
       <c r="AC12" t="n">
-        <v>1861.115563695429</v>
+        <v>2079.183210185585</v>
       </c>
       <c r="AD12" t="n">
-        <v>1503736.351313192</v>
+        <v>1679929.734179462</v>
       </c>
       <c r="AE12" t="n">
-        <v>2057478.416032475</v>
+        <v>2298553.97557356</v>
       </c>
       <c r="AF12" t="n">
         <v>4.413236163546591e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.5625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1861115.563695429</v>
+        <v>2079183.210185585</v>
       </c>
     </row>
     <row r="13">
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1481.776525302922</v>
+        <v>1657.868422942706</v>
       </c>
       <c r="AB13" t="n">
-        <v>2027.432013286074</v>
+        <v>2268.368716263069</v>
       </c>
       <c r="AC13" t="n">
-        <v>1833.936747456753</v>
+        <v>2051.87878965841</v>
       </c>
       <c r="AD13" t="n">
-        <v>1481776.525302922</v>
+        <v>1657868.422942706</v>
       </c>
       <c r="AE13" t="n">
-        <v>2027432.013286074</v>
+        <v>2268368.716263069</v>
       </c>
       <c r="AF13" t="n">
         <v>4.439604081901684e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.35416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1833936.747456753</v>
+        <v>2051878.78965841</v>
       </c>
     </row>
     <row r="14">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1458.347583057886</v>
+        <v>1634.439480697671</v>
       </c>
       <c r="AB14" t="n">
-        <v>1995.375500894433</v>
+        <v>2236.312203871428</v>
       </c>
       <c r="AC14" t="n">
-        <v>1804.939663616172</v>
+        <v>2022.88170581783</v>
       </c>
       <c r="AD14" t="n">
-        <v>1458347.583057886</v>
+        <v>1634439.480697671</v>
       </c>
       <c r="AE14" t="n">
-        <v>1995375.500894433</v>
+        <v>2236312.203871428</v>
       </c>
       <c r="AF14" t="n">
         <v>4.465595315708846e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.14583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1804939.663616172</v>
+        <v>2022881.70581783</v>
       </c>
     </row>
     <row r="15">
@@ -6905,28 +6905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1439.595752852379</v>
+        <v>1615.687650492164</v>
       </c>
       <c r="AB15" t="n">
-        <v>1969.718419534895</v>
+        <v>2210.655122511891</v>
       </c>
       <c r="AC15" t="n">
-        <v>1781.73125809165</v>
+        <v>1999.673300293307</v>
       </c>
       <c r="AD15" t="n">
-        <v>1439595.752852379</v>
+        <v>1615687.650492164</v>
       </c>
       <c r="AE15" t="n">
-        <v>1969718.419534896</v>
+        <v>2210655.122511891</v>
       </c>
       <c r="AF15" t="n">
         <v>4.48329948946155e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.00833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1781731.25809165</v>
+        <v>1999673.300293307</v>
       </c>
     </row>
     <row r="16">
@@ -7011,28 +7011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1410.094074233432</v>
+        <v>1586.253291680921</v>
       </c>
       <c r="AB16" t="n">
-        <v>1929.352921326248</v>
+        <v>2170.381734234085</v>
       </c>
       <c r="AC16" t="n">
-        <v>1745.218186378703</v>
+        <v>1963.243547668679</v>
       </c>
       <c r="AD16" t="n">
-        <v>1410094.074233432</v>
+        <v>1586253.291680921</v>
       </c>
       <c r="AE16" t="n">
-        <v>1929352.921326248</v>
+        <v>2170381.734234085</v>
       </c>
       <c r="AF16" t="n">
         <v>4.501757032310116e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>35</v>
+        <v>34.8625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1745218.186378703</v>
+        <v>1963243.547668679</v>
       </c>
     </row>
     <row r="17">
@@ -7117,28 +7117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1393.15208802144</v>
+        <v>1569.311305468929</v>
       </c>
       <c r="AB17" t="n">
-        <v>1906.17214836332</v>
+        <v>2147.200961271158</v>
       </c>
       <c r="AC17" t="n">
-        <v>1724.249753852937</v>
+        <v>1942.275115142914</v>
       </c>
       <c r="AD17" t="n">
-        <v>1393152.08802144</v>
+        <v>1569311.305468929</v>
       </c>
       <c r="AE17" t="n">
-        <v>1906172.14836332</v>
+        <v>2147200.961271157</v>
       </c>
       <c r="AF17" t="n">
         <v>4.51983789061075e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>35</v>
+        <v>34.725</v>
       </c>
       <c r="AH17" t="n">
-        <v>1724249.753852937</v>
+        <v>1942275.115142914</v>
       </c>
     </row>
     <row r="18">
@@ -7223,28 +7223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1377.91936522813</v>
+        <v>1554.078582675619</v>
       </c>
       <c r="AB18" t="n">
-        <v>1885.330065017213</v>
+        <v>2126.358877925049</v>
       </c>
       <c r="AC18" t="n">
-        <v>1705.396809689334</v>
+        <v>1923.422170979311</v>
       </c>
       <c r="AD18" t="n">
-        <v>1377919.36522813</v>
+        <v>1554078.582675619</v>
       </c>
       <c r="AE18" t="n">
-        <v>1885330.065017213</v>
+        <v>2126358.877925049</v>
       </c>
       <c r="AF18" t="n">
         <v>4.528501635213137e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>35</v>
+        <v>34.65833333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1705396.809689334</v>
+        <v>1923422.170979311</v>
       </c>
     </row>
     <row r="19">
@@ -7329,28 +7329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1371.79531983306</v>
+        <v>1547.954537280549</v>
       </c>
       <c r="AB19" t="n">
-        <v>1876.950875933863</v>
+        <v>2117.9796888417</v>
       </c>
       <c r="AC19" t="n">
-        <v>1697.817318651834</v>
+        <v>1915.842679941811</v>
       </c>
       <c r="AD19" t="n">
-        <v>1371795.31983306</v>
+        <v>1547954.537280549</v>
       </c>
       <c r="AE19" t="n">
-        <v>1876950.875933863</v>
+        <v>2117979.6888417</v>
       </c>
       <c r="AF19" t="n">
         <v>4.537165379815524e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>35</v>
+        <v>34.59166666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1697817.318651834</v>
+        <v>1915842.67994181</v>
       </c>
     </row>
     <row r="20">
@@ -7435,28 +7435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1375.885516723016</v>
+        <v>1552.044734170506</v>
       </c>
       <c r="AB20" t="n">
-        <v>1882.547263765453</v>
+        <v>2123.57607667329</v>
       </c>
       <c r="AC20" t="n">
-        <v>1702.879595083357</v>
+        <v>1920.904956373334</v>
       </c>
       <c r="AD20" t="n">
-        <v>1375885.516723016</v>
+        <v>1552044.734170506</v>
       </c>
       <c r="AE20" t="n">
-        <v>1882547.263765453</v>
+        <v>2123576.07667329</v>
       </c>
       <c r="AF20" t="n">
         <v>4.536788695267595e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>35</v>
+        <v>34.59583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1702879.595083357</v>
+        <v>1920904.956373333</v>
       </c>
     </row>
     <row r="21">
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1380.295473183786</v>
+        <v>1556.454690631276</v>
       </c>
       <c r="AB21" t="n">
-        <v>1888.581160748627</v>
+        <v>2129.609973656464</v>
       </c>
       <c r="AC21" t="n">
-        <v>1708.337625407084</v>
+        <v>1926.362986697061</v>
       </c>
       <c r="AD21" t="n">
-        <v>1380295.473183786</v>
+        <v>1556454.690631276</v>
       </c>
       <c r="AE21" t="n">
-        <v>1888581.160748627</v>
+        <v>2129609.973656464</v>
       </c>
       <c r="AF21" t="n">
         <v>4.536788695267595e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>35</v>
+        <v>34.59583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1708337.625407084</v>
+        <v>1926362.986697061</v>
       </c>
     </row>
   </sheetData>
@@ -7838,28 +7838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4877.141130445141</v>
+        <v>5254.546896654092</v>
       </c>
       <c r="AB2" t="n">
-        <v>6673.119658956566</v>
+        <v>7189.502878250992</v>
       </c>
       <c r="AC2" t="n">
-        <v>6036.246484487765</v>
+        <v>6503.346814081111</v>
       </c>
       <c r="AD2" t="n">
-        <v>4877141.130445141</v>
+        <v>5254546.896654092</v>
       </c>
       <c r="AE2" t="n">
-        <v>6673119.658956566</v>
+        <v>7189502.878250992</v>
       </c>
       <c r="AF2" t="n">
         <v>2.259473414134938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.00833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6036246.484487765</v>
+        <v>6503346.814081111</v>
       </c>
     </row>
     <row r="3">
@@ -7944,28 +7944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2230.364080886983</v>
+        <v>2462.595775263093</v>
       </c>
       <c r="AB3" t="n">
-        <v>3051.682532188502</v>
+        <v>3369.43218177319</v>
       </c>
       <c r="AC3" t="n">
-        <v>2760.434234379651</v>
+        <v>3047.858303372398</v>
       </c>
       <c r="AD3" t="n">
-        <v>2230364.080886983</v>
+        <v>2462595.775263093</v>
       </c>
       <c r="AE3" t="n">
-        <v>3051682.532188502</v>
+        <v>3369432.18177319</v>
       </c>
       <c r="AF3" t="n">
         <v>3.641865575938765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.15833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2760434.234379651</v>
+        <v>3047858.303372398</v>
       </c>
     </row>
     <row r="4">
@@ -8050,28 +8050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1816.859660778504</v>
+        <v>2020.151192930774</v>
       </c>
       <c r="AB4" t="n">
-        <v>2485.907542068383</v>
+        <v>2764.059984948547</v>
       </c>
       <c r="AC4" t="n">
-        <v>2248.656015246524</v>
+        <v>2500.26197936761</v>
       </c>
       <c r="AD4" t="n">
-        <v>1816859.660778504</v>
+        <v>2020151.192930774</v>
       </c>
       <c r="AE4" t="n">
-        <v>2485907.542068383</v>
+        <v>2764059.984948547</v>
       </c>
       <c r="AF4" t="n">
         <v>4.136460267102925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.51666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2248656.015246524</v>
+        <v>2500261.979367611</v>
       </c>
     </row>
     <row r="5">
@@ -8156,28 +8156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1648.402329663871</v>
+        <v>1841.911827439548</v>
       </c>
       <c r="AB5" t="n">
-        <v>2255.416789824406</v>
+        <v>2520.185021717615</v>
       </c>
       <c r="AC5" t="n">
-        <v>2040.16297690091</v>
+        <v>2279.662100346779</v>
       </c>
       <c r="AD5" t="n">
-        <v>1648402.329663871</v>
+        <v>1841911.827439548</v>
       </c>
       <c r="AE5" t="n">
-        <v>2255416.789824406</v>
+        <v>2520185.021717615</v>
       </c>
       <c r="AF5" t="n">
         <v>4.394473830993562e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.07916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2040162.97690091</v>
+        <v>2279662.100346779</v>
       </c>
     </row>
     <row r="6">
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1542.293373786955</v>
+        <v>1735.836025951556</v>
       </c>
       <c r="AB6" t="n">
-        <v>2110.233835196858</v>
+        <v>2375.047430387661</v>
       </c>
       <c r="AC6" t="n">
-        <v>1908.836079697458</v>
+        <v>2148.376237031466</v>
       </c>
       <c r="AD6" t="n">
-        <v>1542293.373786955</v>
+        <v>1735836.025951556</v>
       </c>
       <c r="AE6" t="n">
-        <v>2110233.835196858</v>
+        <v>2375047.430387661</v>
       </c>
       <c r="AF6" t="n">
         <v>4.553980618894003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.7125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1908836.079697459</v>
+        <v>2148376.237031466</v>
       </c>
     </row>
     <row r="7">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1474.774436410484</v>
+        <v>1658.670704843758</v>
       </c>
       <c r="AB7" t="n">
-        <v>2017.851446353081</v>
+        <v>2269.466433754267</v>
       </c>
       <c r="AC7" t="n">
-        <v>1825.270536385435</v>
+        <v>2052.871742532904</v>
       </c>
       <c r="AD7" t="n">
-        <v>1474774.436410484</v>
+        <v>1658670.704843758</v>
       </c>
       <c r="AE7" t="n">
-        <v>2017851.446353081</v>
+        <v>2269466.433754267</v>
       </c>
       <c r="AF7" t="n">
         <v>4.662791450950118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.82916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1825270.536385435</v>
+        <v>2052871.742532904</v>
       </c>
     </row>
     <row r="8">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1427.966927027794</v>
+        <v>1602.149491922035</v>
       </c>
       <c r="AB8" t="n">
-        <v>1953.807347014111</v>
+        <v>2192.131616694838</v>
       </c>
       <c r="AC8" t="n">
-        <v>1767.338716000917</v>
+        <v>1982.917651873529</v>
       </c>
       <c r="AD8" t="n">
-        <v>1427966.927027794</v>
+        <v>1602149.491922035</v>
       </c>
       <c r="AE8" t="n">
-        <v>1953807.347014111</v>
+        <v>2192131.616694838</v>
       </c>
       <c r="AF8" t="n">
         <v>4.743575250506932e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.20416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1767338.716000917</v>
+        <v>1982917.651873529</v>
       </c>
     </row>
     <row r="9">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1384.543810094076</v>
+        <v>1568.405913108569</v>
       </c>
       <c r="AB9" t="n">
-        <v>1894.393922732683</v>
+        <v>2145.962163500621</v>
       </c>
       <c r="AC9" t="n">
-        <v>1713.595625545644</v>
+        <v>1941.154546492934</v>
       </c>
       <c r="AD9" t="n">
-        <v>1384543.810094076</v>
+        <v>1568405.913108569</v>
       </c>
       <c r="AE9" t="n">
-        <v>1894393.922732682</v>
+        <v>2145962.163500621</v>
       </c>
       <c r="AF9" t="n">
         <v>4.80169012671872e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.7625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1713595.625545644</v>
+        <v>1941154.546492934</v>
       </c>
     </row>
     <row r="10">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1350.228376328781</v>
+        <v>1524.376775804242</v>
       </c>
       <c r="AB10" t="n">
-        <v>1847.442032364913</v>
+        <v>2085.719555412393</v>
       </c>
       <c r="AC10" t="n">
-        <v>1671.124757697183</v>
+        <v>1886.661408369615</v>
       </c>
       <c r="AD10" t="n">
-        <v>1350228.376328781</v>
+        <v>1524376.775804242</v>
       </c>
       <c r="AE10" t="n">
-        <v>1847442.032364913</v>
+        <v>2085719.555412393</v>
       </c>
       <c r="AF10" t="n">
         <v>4.849088784621952e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.41666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1671124.757697182</v>
+        <v>1886661.408369615</v>
       </c>
     </row>
     <row r="11">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1320.310407224255</v>
+        <v>1494.458806699716</v>
       </c>
       <c r="AB11" t="n">
-        <v>1806.506947148457</v>
+        <v>2044.784470195936</v>
       </c>
       <c r="AC11" t="n">
-        <v>1634.096459561032</v>
+        <v>1849.633110233464</v>
       </c>
       <c r="AD11" t="n">
-        <v>1320310.407224255</v>
+        <v>1494458.806699716</v>
       </c>
       <c r="AE11" t="n">
-        <v>1806506.947148457</v>
+        <v>2044784.470195936</v>
       </c>
       <c r="AF11" t="n">
         <v>4.89195365785618e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.10833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1634096.459561032</v>
+        <v>1849633.110233464</v>
       </c>
     </row>
     <row r="12">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1285.552351085576</v>
+        <v>1459.768070368741</v>
       </c>
       <c r="AB12" t="n">
-        <v>1758.949441322301</v>
+        <v>1997.319074300622</v>
       </c>
       <c r="AC12" t="n">
-        <v>1591.077775343546</v>
+        <v>1806.697745104297</v>
       </c>
       <c r="AD12" t="n">
-        <v>1285552.351085576</v>
+        <v>1459768.070368741</v>
       </c>
       <c r="AE12" t="n">
-        <v>1758949.441322302</v>
+        <v>1997319.074300622</v>
       </c>
       <c r="AF12" t="n">
         <v>4.917919879142298e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>35</v>
+        <v>34.92083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1591077.775343546</v>
+        <v>1806697.745104297</v>
       </c>
     </row>
     <row r="13">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1266.218799296577</v>
+        <v>1440.434518579742</v>
       </c>
       <c r="AB13" t="n">
-        <v>1732.496422828486</v>
+        <v>1970.866055806807</v>
       </c>
       <c r="AC13" t="n">
-        <v>1567.149395807735</v>
+        <v>1782.769365568487</v>
       </c>
       <c r="AD13" t="n">
-        <v>1266218.799296577</v>
+        <v>1440434.518579742</v>
       </c>
       <c r="AE13" t="n">
-        <v>1732496.422828486</v>
+        <v>1970866.055806807</v>
       </c>
       <c r="AF13" t="n">
         <v>4.940176640244685e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>34.7625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1567149.395807735</v>
+        <v>1782769.365568487</v>
       </c>
     </row>
     <row r="14">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1262.329782749199</v>
+        <v>1436.545502032364</v>
       </c>
       <c r="AB14" t="n">
-        <v>1727.175298817062</v>
+        <v>1965.544931795383</v>
       </c>
       <c r="AC14" t="n">
-        <v>1562.336112403718</v>
+        <v>1777.956082164469</v>
       </c>
       <c r="AD14" t="n">
-        <v>1262329.782749199</v>
+        <v>1436545.502032364</v>
       </c>
       <c r="AE14" t="n">
-        <v>1727175.298817062</v>
+        <v>1965544.931795383</v>
       </c>
       <c r="AF14" t="n">
         <v>4.94718339836951e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>35</v>
+        <v>34.71666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1562336.112403718</v>
+        <v>1777956.082164469</v>
       </c>
     </row>
     <row r="15">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1266.744598259111</v>
+        <v>1440.960317542276</v>
       </c>
       <c r="AB15" t="n">
-        <v>1733.215844165638</v>
+        <v>1971.585477143959</v>
       </c>
       <c r="AC15" t="n">
-        <v>1567.800156582184</v>
+        <v>1783.420126342935</v>
       </c>
       <c r="AD15" t="n">
-        <v>1266744.598259111</v>
+        <v>1440960.317542277</v>
       </c>
       <c r="AE15" t="n">
-        <v>1733215.844165638</v>
+        <v>1971585.477143959</v>
       </c>
       <c r="AF15" t="n">
         <v>4.946359073884237e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>34.72083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1567800.156582184</v>
+        <v>1783420.126342935</v>
       </c>
     </row>
     <row r="16">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1271.177883179082</v>
+        <v>1445.393602462247</v>
       </c>
       <c r="AB16" t="n">
-        <v>1739.28166017587</v>
+        <v>1977.65129315419</v>
       </c>
       <c r="AC16" t="n">
-        <v>1573.287059625826</v>
+        <v>1788.907029386577</v>
       </c>
       <c r="AD16" t="n">
-        <v>1271177.883179082</v>
+        <v>1445393.602462247</v>
       </c>
       <c r="AE16" t="n">
-        <v>1739281.66017587</v>
+        <v>1977651.29315419</v>
       </c>
       <c r="AF16" t="n">
         <v>4.9459469116416e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>35</v>
+        <v>34.72083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1573287.059625826</v>
+        <v>1788907.029386577</v>
       </c>
     </row>
   </sheetData>
@@ -9619,28 +9619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1758.588415456386</v>
+        <v>1992.441293530768</v>
       </c>
       <c r="AB2" t="n">
-        <v>2406.178253472753</v>
+        <v>2726.146078114975</v>
       </c>
       <c r="AC2" t="n">
-        <v>2176.535978053701</v>
+        <v>2465.966522589733</v>
       </c>
       <c r="AD2" t="n">
-        <v>1758588.415456386</v>
+        <v>1992441.293530768</v>
       </c>
       <c r="AE2" t="n">
-        <v>2406178.253472753</v>
+        <v>2726146.078114975</v>
       </c>
       <c r="AF2" t="n">
         <v>4.928502010365456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2176535.978053702</v>
+        <v>2465966.522589733</v>
       </c>
     </row>
     <row r="3">
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1214.788722885466</v>
+        <v>1401.796872453511</v>
       </c>
       <c r="AB3" t="n">
-        <v>1662.127523347966</v>
+        <v>1918.000323804253</v>
       </c>
       <c r="AC3" t="n">
-        <v>1503.496405330266</v>
+        <v>1734.949064830736</v>
       </c>
       <c r="AD3" t="n">
-        <v>1214788.722885466</v>
+        <v>1401796.872453511</v>
       </c>
       <c r="AE3" t="n">
-        <v>1662127.523347966</v>
+        <v>1918000.323804253</v>
       </c>
       <c r="AF3" t="n">
         <v>6.143512661222448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.01666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1503496.405330266</v>
+        <v>1734949.064830736</v>
       </c>
     </row>
     <row r="4">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1058.348700022402</v>
+        <v>1236.068687658425</v>
       </c>
       <c r="AB4" t="n">
-        <v>1448.079382420008</v>
+        <v>1691.243709956118</v>
       </c>
       <c r="AC4" t="n">
-        <v>1309.876718554019</v>
+        <v>1529.83378395336</v>
       </c>
       <c r="AD4" t="n">
-        <v>1058348.700022402</v>
+        <v>1236068.687658425</v>
       </c>
       <c r="AE4" t="n">
-        <v>1448079.382420008</v>
+        <v>1691243.709956117</v>
       </c>
       <c r="AF4" t="n">
         <v>6.566925463793823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.50416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1309876.718554019</v>
+        <v>1529833.78395336</v>
       </c>
     </row>
     <row r="5">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1006.843341978874</v>
+        <v>1184.529164196117</v>
       </c>
       <c r="AB5" t="n">
-        <v>1377.607479288823</v>
+        <v>1620.725060191686</v>
       </c>
       <c r="AC5" t="n">
-        <v>1246.130554949738</v>
+        <v>1466.045335148899</v>
       </c>
       <c r="AD5" t="n">
-        <v>1006843.341978875</v>
+        <v>1184529.164196117</v>
       </c>
       <c r="AE5" t="n">
-        <v>1377607.479288823</v>
+        <v>1620725.060191686</v>
       </c>
       <c r="AF5" t="n">
         <v>6.699817253731307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.77916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1246130.554949738</v>
+        <v>1466045.335148899</v>
       </c>
     </row>
     <row r="6">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1010.481622636499</v>
+        <v>1188.167444853741</v>
       </c>
       <c r="AB6" t="n">
-        <v>1382.5855353942</v>
+        <v>1625.703116297062</v>
       </c>
       <c r="AC6" t="n">
-        <v>1250.633512367163</v>
+        <v>1470.548292566324</v>
       </c>
       <c r="AD6" t="n">
-        <v>1010481.622636499</v>
+        <v>1188167.444853741</v>
       </c>
       <c r="AE6" t="n">
-        <v>1382585.5353942</v>
+        <v>1625703.116297062</v>
       </c>
       <c r="AF6" t="n">
         <v>6.700967831999163e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.77083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1250633.512367163</v>
+        <v>1470548.292566324</v>
       </c>
     </row>
   </sheetData>
@@ -10340,28 +10340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2519.245009514025</v>
+        <v>2794.103892594648</v>
       </c>
       <c r="AB2" t="n">
-        <v>3446.942163263151</v>
+        <v>3823.016213012197</v>
       </c>
       <c r="AC2" t="n">
-        <v>3117.970841014896</v>
+        <v>3458.152911279122</v>
       </c>
       <c r="AD2" t="n">
-        <v>2519245.009514025</v>
+        <v>2794103.892594648</v>
       </c>
       <c r="AE2" t="n">
-        <v>3446942.163263151</v>
+        <v>3823016.213012197</v>
       </c>
       <c r="AF2" t="n">
         <v>3.700130995463943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3117970.841014896</v>
+        <v>3458152.911279122</v>
       </c>
     </row>
     <row r="3">
@@ -10446,28 +10446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1535.929904708691</v>
+        <v>1744.478116697665</v>
       </c>
       <c r="AB3" t="n">
-        <v>2101.527056067535</v>
+        <v>2386.871920208624</v>
       </c>
       <c r="AC3" t="n">
-        <v>1900.960263348197</v>
+        <v>2159.072214139692</v>
       </c>
       <c r="AD3" t="n">
-        <v>1535929.904708691</v>
+        <v>1744478.116697665</v>
       </c>
       <c r="AE3" t="n">
-        <v>2101527.056067535</v>
+        <v>2386871.920208624</v>
       </c>
       <c r="AF3" t="n">
         <v>4.988476054608922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.6125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1900960.263348197</v>
+        <v>2159072.214139692</v>
       </c>
     </row>
     <row r="4">
@@ -10552,28 +10552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.060932396179</v>
+        <v>1506.162445029574</v>
       </c>
       <c r="AB4" t="n">
-        <v>1814.375069383949</v>
+        <v>2060.79790448693</v>
       </c>
       <c r="AC4" t="n">
-        <v>1641.213659253347</v>
+        <v>1864.118244830721</v>
       </c>
       <c r="AD4" t="n">
-        <v>1326060.932396179</v>
+        <v>1506162.445029574</v>
       </c>
       <c r="AE4" t="n">
-        <v>1814375.069383949</v>
+        <v>2060797.90448693</v>
       </c>
       <c r="AF4" t="n">
         <v>5.436357805641921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1641213.659253347</v>
+        <v>1864118.244830721</v>
       </c>
     </row>
     <row r="5">
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1217.575434190467</v>
+        <v>1397.710101212785</v>
       </c>
       <c r="AB5" t="n">
-        <v>1665.940424696495</v>
+        <v>1912.408623097069</v>
       </c>
       <c r="AC5" t="n">
-        <v>1506.945408725532</v>
+        <v>1729.891028191045</v>
       </c>
       <c r="AD5" t="n">
-        <v>1217575.434190467</v>
+        <v>1397710.101212785</v>
       </c>
       <c r="AE5" t="n">
-        <v>1665940.424696495</v>
+        <v>1912408.62309707</v>
       </c>
       <c r="AF5" t="n">
         <v>5.667024380423098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.62916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1506945.408725532</v>
+        <v>1729891.028191045</v>
       </c>
     </row>
     <row r="6">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1145.344010626912</v>
+        <v>1325.444512230449</v>
       </c>
       <c r="AB6" t="n">
-        <v>1567.110204351332</v>
+        <v>1813.531656118659</v>
       </c>
       <c r="AC6" t="n">
-        <v>1417.547405901025</v>
+        <v>1640.450740166358</v>
       </c>
       <c r="AD6" t="n">
-        <v>1145344.010626912</v>
+        <v>1325444.512230449</v>
       </c>
       <c r="AE6" t="n">
-        <v>1567110.204351332</v>
+        <v>1813531.656118659</v>
       </c>
       <c r="AF6" t="n">
         <v>5.812000564572824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.71666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1417547.405901025</v>
+        <v>1640450.740166358</v>
       </c>
     </row>
     <row r="7">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1106.518550178463</v>
+        <v>1277.103327264598</v>
       </c>
       <c r="AB7" t="n">
-        <v>1513.987496507336</v>
+        <v>1747.389114185815</v>
       </c>
       <c r="AC7" t="n">
-        <v>1369.494654735472</v>
+        <v>1580.620749603945</v>
       </c>
       <c r="AD7" t="n">
-        <v>1106518.550178463</v>
+        <v>1277103.327264598</v>
       </c>
       <c r="AE7" t="n">
-        <v>1513987.496507336</v>
+        <v>1747389.114185815</v>
       </c>
       <c r="AF7" t="n">
         <v>5.888225156239173e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.25416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1369494.654735472</v>
+        <v>1580620.749603945</v>
       </c>
     </row>
     <row r="8">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1103.942022952757</v>
+        <v>1274.526800038891</v>
       </c>
       <c r="AB8" t="n">
-        <v>1510.462178288766</v>
+        <v>1743.863795967245</v>
       </c>
       <c r="AC8" t="n">
-        <v>1366.305787939867</v>
+        <v>1577.43188280834</v>
       </c>
       <c r="AD8" t="n">
-        <v>1103942.022952757</v>
+        <v>1274526.800038891</v>
       </c>
       <c r="AE8" t="n">
-        <v>1510462.178288766</v>
+        <v>1743863.795967245</v>
       </c>
       <c r="AF8" t="n">
         <v>5.900181954931934e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.18333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1366305.787939867</v>
+        <v>1577431.88280834</v>
       </c>
     </row>
     <row r="9">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1107.625245209202</v>
+        <v>1278.210022295336</v>
       </c>
       <c r="AB9" t="n">
-        <v>1515.501725472332</v>
+        <v>1748.903343150811</v>
       </c>
       <c r="AC9" t="n">
-        <v>1370.864367813282</v>
+        <v>1581.990462681755</v>
       </c>
       <c r="AD9" t="n">
-        <v>1107625.245209202</v>
+        <v>1278210.022295336</v>
       </c>
       <c r="AE9" t="n">
-        <v>1515501.725472332</v>
+        <v>1748903.343150811</v>
       </c>
       <c r="AF9" t="n">
         <v>5.900680154877466e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.17916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1370864.367813282</v>
+        <v>1581990.462681755</v>
       </c>
     </row>
   </sheetData>
@@ -11379,28 +11379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1329.419621738013</v>
+        <v>1532.879652136206</v>
       </c>
       <c r="AB2" t="n">
-        <v>1818.970576316361</v>
+        <v>2097.353565930214</v>
       </c>
       <c r="AC2" t="n">
-        <v>1645.370577453965</v>
+        <v>1897.185085252052</v>
       </c>
       <c r="AD2" t="n">
-        <v>1329419.621738013</v>
+        <v>1532879.652136206</v>
       </c>
       <c r="AE2" t="n">
-        <v>1818970.576316361</v>
+        <v>2097353.565930214</v>
       </c>
       <c r="AF2" t="n">
         <v>6.238609402443824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.00833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1645370.577453965</v>
+        <v>1897185.085252052</v>
       </c>
     </row>
     <row r="3">
@@ -11485,28 +11485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>979.5598463008217</v>
+        <v>1155.231981706703</v>
       </c>
       <c r="AB3" t="n">
-        <v>1340.276996839233</v>
+        <v>1580.639362609198</v>
       </c>
       <c r="AC3" t="n">
-        <v>1212.362841351475</v>
+        <v>1429.785360283054</v>
       </c>
       <c r="AD3" t="n">
-        <v>979559.8463008218</v>
+        <v>1155231.981706703</v>
       </c>
       <c r="AE3" t="n">
-        <v>1340276.996839233</v>
+        <v>1580639.362609198</v>
       </c>
       <c r="AF3" t="n">
         <v>7.378532751221582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1212362.841351475</v>
+        <v>1429785.360283054</v>
       </c>
     </row>
     <row r="4">
@@ -11591,28 +11591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>945.6530542022879</v>
+        <v>1121.392509415873</v>
       </c>
       <c r="AB4" t="n">
-        <v>1293.884228027924</v>
+        <v>1534.338703728731</v>
       </c>
       <c r="AC4" t="n">
-        <v>1170.397733282858</v>
+        <v>1387.903571302756</v>
       </c>
       <c r="AD4" t="n">
-        <v>945653.0542022879</v>
+        <v>1121392.509415873</v>
       </c>
       <c r="AE4" t="n">
-        <v>1293884.228027924</v>
+        <v>1534338.703728731</v>
       </c>
       <c r="AF4" t="n">
         <v>7.496478577482402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1170397.733282858</v>
+        <v>1387903.571302756</v>
       </c>
     </row>
     <row r="5">
@@ -11697,28 +11697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>951.1853181680032</v>
+        <v>1126.924773381589</v>
       </c>
       <c r="AB5" t="n">
-        <v>1301.453715652076</v>
+        <v>1541.908191352883</v>
       </c>
       <c r="AC5" t="n">
-        <v>1177.244799632004</v>
+        <v>1394.750637651902</v>
       </c>
       <c r="AD5" t="n">
-        <v>951185.3181680031</v>
+        <v>1126924.773381589</v>
       </c>
       <c r="AE5" t="n">
-        <v>1301453.715652076</v>
+        <v>1541908.191352883</v>
       </c>
       <c r="AF5" t="n">
         <v>7.495160747021387e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.62916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1177244.799632004</v>
+        <v>1394750.637651902</v>
       </c>
     </row>
   </sheetData>
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5466.820164743246</v>
+        <v>5864.750590749878</v>
       </c>
       <c r="AB2" t="n">
-        <v>7479.94452848624</v>
+        <v>8024.41049279994</v>
       </c>
       <c r="AC2" t="n">
-        <v>6766.069120855312</v>
+        <v>7258.57201769767</v>
       </c>
       <c r="AD2" t="n">
-        <v>5466820.164743247</v>
+        <v>5864750.590749878</v>
       </c>
       <c r="AE2" t="n">
-        <v>7479944.528486241</v>
+        <v>8024410.49279994</v>
       </c>
       <c r="AF2" t="n">
         <v>2.083826444436678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6766069.120855312</v>
+        <v>7258572.01769767</v>
       </c>
     </row>
     <row r="3">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2360.255580070456</v>
+        <v>2602.84314689586</v>
       </c>
       <c r="AB3" t="n">
-        <v>3229.405811779852</v>
+        <v>3561.324822918512</v>
       </c>
       <c r="AC3" t="n">
-        <v>2921.195853602984</v>
+        <v>3221.436980169816</v>
       </c>
       <c r="AD3" t="n">
-        <v>2360255.580070456</v>
+        <v>2602843.14689586</v>
       </c>
       <c r="AE3" t="n">
-        <v>3229405.811779852</v>
+        <v>3561324.822918512</v>
       </c>
       <c r="AF3" t="n">
         <v>3.476663923125004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.20000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>2921195.853602984</v>
+        <v>3221436.980169816</v>
       </c>
     </row>
     <row r="4">
@@ -12206,28 +12206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1905.03576260164</v>
+        <v>2108.855945469298</v>
       </c>
       <c r="AB4" t="n">
-        <v>2606.553974637864</v>
+        <v>2885.429740749244</v>
       </c>
       <c r="AC4" t="n">
-        <v>2357.788121619906</v>
+        <v>2610.048376018211</v>
       </c>
       <c r="AD4" t="n">
-        <v>1905035.76260164</v>
+        <v>2108855.945469297</v>
       </c>
       <c r="AE4" t="n">
-        <v>2606553.974637864</v>
+        <v>2885429.740749244</v>
       </c>
       <c r="AF4" t="n">
         <v>3.981029559358086e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.09583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2357788.121619906</v>
+        <v>2610048.376018211</v>
       </c>
     </row>
     <row r="5">
@@ -12312,28 +12312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1713.017998451729</v>
+        <v>1907.09508720178</v>
       </c>
       <c r="AB5" t="n">
-        <v>2343.826798502072</v>
+        <v>2609.371633406765</v>
       </c>
       <c r="AC5" t="n">
-        <v>2120.135258434606</v>
+        <v>2360.336866990511</v>
       </c>
       <c r="AD5" t="n">
-        <v>1713017.99845173</v>
+        <v>1907095.087201779</v>
       </c>
       <c r="AE5" t="n">
-        <v>2343826.798502072</v>
+        <v>2609371.633406765</v>
       </c>
       <c r="AF5" t="n">
         <v>4.242865308311623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.49583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2120135.258434606</v>
+        <v>2360336.866990511</v>
       </c>
     </row>
     <row r="6">
@@ -12418,28 +12418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1609.399653095713</v>
+        <v>1793.801978565717</v>
       </c>
       <c r="AB6" t="n">
-        <v>2202.0516070672</v>
+        <v>2454.359004031701</v>
       </c>
       <c r="AC6" t="n">
-        <v>1991.890892287547</v>
+        <v>2220.118425401412</v>
       </c>
       <c r="AD6" t="n">
-        <v>1609399.653095713</v>
+        <v>1793801.978565717</v>
       </c>
       <c r="AE6" t="n">
-        <v>2202051.6070672</v>
+        <v>2454359.004031701</v>
       </c>
       <c r="AF6" t="n">
         <v>4.408573954346734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.0125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1991890.892287547</v>
+        <v>2220118.425401412</v>
       </c>
     </row>
     <row r="7">
@@ -12524,28 +12524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1540.325354811628</v>
+        <v>1724.693514862851</v>
       </c>
       <c r="AB7" t="n">
-        <v>2107.541104811945</v>
+        <v>2359.801755143199</v>
       </c>
       <c r="AC7" t="n">
-        <v>1906.400339721211</v>
+        <v>2134.585587634897</v>
       </c>
       <c r="AD7" t="n">
-        <v>1540325.354811628</v>
+        <v>1724693.514862851</v>
       </c>
       <c r="AE7" t="n">
-        <v>2107541.104811945</v>
+        <v>2359801.755143199</v>
       </c>
       <c r="AF7" t="n">
         <v>4.514756193553699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.12083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1906400.339721211</v>
+        <v>2134585.587634897</v>
       </c>
     </row>
     <row r="8">
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1481.503004885155</v>
+        <v>1665.836999517598</v>
       </c>
       <c r="AB8" t="n">
-        <v>2027.057770583617</v>
+        <v>2279.271674281623</v>
       </c>
       <c r="AC8" t="n">
-        <v>1833.598221952565</v>
+        <v>2061.741184666071</v>
       </c>
       <c r="AD8" t="n">
-        <v>1481503.004885155</v>
+        <v>1665836.999517598</v>
       </c>
       <c r="AE8" t="n">
-        <v>2027057.770583617</v>
+        <v>2279271.674281623</v>
       </c>
       <c r="AF8" t="n">
         <v>4.601230365635128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.42083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1833598.221952565</v>
+        <v>2061741.184666071</v>
       </c>
     </row>
     <row r="9">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1436.715325574715</v>
+        <v>1621.116640014862</v>
       </c>
       <c r="AB9" t="n">
-        <v>1965.777291858113</v>
+        <v>2218.083305486961</v>
       </c>
       <c r="AC9" t="n">
-        <v>1778.166266108931</v>
+        <v>2006.392547910756</v>
       </c>
       <c r="AD9" t="n">
-        <v>1436715.325574715</v>
+        <v>1621116.640014862</v>
       </c>
       <c r="AE9" t="n">
-        <v>1965777.291858113</v>
+        <v>2218083.305486961</v>
       </c>
       <c r="AF9" t="n">
         <v>4.656332512496318e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.99166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1778166.266108932</v>
+        <v>2006392.547910756</v>
       </c>
     </row>
     <row r="10">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1406.11081384822</v>
+        <v>1580.871530427102</v>
       </c>
       <c r="AB10" t="n">
-        <v>1923.902848738156</v>
+        <v>2163.01817106006</v>
       </c>
       <c r="AC10" t="n">
-        <v>1740.288261069193</v>
+        <v>1956.582752629157</v>
       </c>
       <c r="AD10" t="n">
-        <v>1406110.81384822</v>
+        <v>1580871.530427102</v>
       </c>
       <c r="AE10" t="n">
-        <v>1923902.848738156</v>
+        <v>2163018.17106006</v>
       </c>
       <c r="AF10" t="n">
         <v>4.703792755778219e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.62916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1740288.261069193</v>
+        <v>1956582.752629157</v>
       </c>
     </row>
     <row r="11">
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1376.388215127736</v>
+        <v>1551.047446480133</v>
       </c>
       <c r="AB11" t="n">
-        <v>1883.235077900279</v>
+        <v>2122.211543658094</v>
       </c>
       <c r="AC11" t="n">
-        <v>1703.501765202508</v>
+        <v>1919.670652473974</v>
       </c>
       <c r="AD11" t="n">
-        <v>1376388.215127736</v>
+        <v>1551047.446480133</v>
       </c>
       <c r="AE11" t="n">
-        <v>1883235.077900279</v>
+        <v>2122211.543658094</v>
       </c>
       <c r="AF11" t="n">
         <v>4.746828739093163e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.30416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1703501.765202508</v>
+        <v>1919670.652473974</v>
       </c>
     </row>
     <row r="12">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1348.037495707849</v>
+        <v>1522.696727060245</v>
       </c>
       <c r="AB12" t="n">
-        <v>1844.444372844521</v>
+        <v>2083.420838602336</v>
       </c>
       <c r="AC12" t="n">
-        <v>1668.413190594175</v>
+        <v>1884.58207786564</v>
       </c>
       <c r="AD12" t="n">
-        <v>1348037.495707849</v>
+        <v>1522696.727060245</v>
       </c>
       <c r="AE12" t="n">
-        <v>1844444.372844521</v>
+        <v>2083420.838602336</v>
       </c>
       <c r="AF12" t="n">
         <v>4.777396353410319e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.07916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1668413.190594175</v>
+        <v>1884582.07786564</v>
       </c>
     </row>
     <row r="13">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1314.850429811887</v>
+        <v>1489.576980971988</v>
       </c>
       <c r="AB13" t="n">
-        <v>1799.036365175651</v>
+        <v>2038.104940864307</v>
       </c>
       <c r="AC13" t="n">
-        <v>1627.338859446683</v>
+        <v>1843.591065806467</v>
       </c>
       <c r="AD13" t="n">
-        <v>1314850.429811887</v>
+        <v>1489576.980971988</v>
       </c>
       <c r="AE13" t="n">
-        <v>1799036.365175651</v>
+        <v>2038104.940864307</v>
       </c>
       <c r="AF13" t="n">
         <v>4.804746324115144e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>34.87916666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1627338.859446683</v>
+        <v>1843591.065806467</v>
       </c>
     </row>
     <row r="14">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1299.403169043801</v>
+        <v>1474.129720203902</v>
       </c>
       <c r="AB14" t="n">
-        <v>1777.900741507708</v>
+        <v>2016.969317196364</v>
       </c>
       <c r="AC14" t="n">
-        <v>1608.220390037574</v>
+        <v>1824.472596397358</v>
       </c>
       <c r="AD14" t="n">
-        <v>1299403.169043801</v>
+        <v>1474129.720203902</v>
       </c>
       <c r="AE14" t="n">
-        <v>1777900.741507708</v>
+        <v>2016969.317196364</v>
       </c>
       <c r="AF14" t="n">
         <v>4.822041158531429e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>35</v>
+        <v>34.75416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1608220.390037574</v>
+        <v>1824472.596397358</v>
       </c>
     </row>
     <row r="15">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1289.927400530131</v>
+        <v>1464.653951690232</v>
       </c>
       <c r="AB15" t="n">
-        <v>1764.935576985901</v>
+        <v>2004.004152674558</v>
       </c>
       <c r="AC15" t="n">
-        <v>1596.492602621006</v>
+        <v>1812.74480898079</v>
       </c>
       <c r="AD15" t="n">
-        <v>1289927.400530131</v>
+        <v>1464653.951690232</v>
       </c>
       <c r="AE15" t="n">
-        <v>1764935.576985901</v>
+        <v>2004004.152674558</v>
       </c>
       <c r="AF15" t="n">
         <v>4.829280856659178e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="AH15" t="n">
-        <v>1596492.602621006</v>
+        <v>1812744.80898079</v>
       </c>
     </row>
     <row r="16">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1291.767297177065</v>
+        <v>1466.493848337165</v>
       </c>
       <c r="AB16" t="n">
-        <v>1767.453004748747</v>
+        <v>2006.521580437403</v>
       </c>
       <c r="AC16" t="n">
-        <v>1598.769770611398</v>
+        <v>1815.021976971183</v>
       </c>
       <c r="AD16" t="n">
-        <v>1291767.297177065</v>
+        <v>1466493.848337166</v>
       </c>
       <c r="AE16" t="n">
-        <v>1767453.004748747</v>
+        <v>2006521.580437403</v>
       </c>
       <c r="AF16" t="n">
         <v>4.834107322077676e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>35</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1598769.770611398</v>
+        <v>1815021.976971183</v>
       </c>
     </row>
     <row r="17">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1296.313007084359</v>
+        <v>1471.03955824446</v>
       </c>
       <c r="AB17" t="n">
-        <v>1773.672645586475</v>
+        <v>2012.741221275131</v>
       </c>
       <c r="AC17" t="n">
-        <v>1604.395817656894</v>
+        <v>1820.648024016678</v>
       </c>
       <c r="AD17" t="n">
-        <v>1296313.007084359</v>
+        <v>1471039.55824446</v>
       </c>
       <c r="AE17" t="n">
-        <v>1773672.645586475</v>
+        <v>2012741.221275131</v>
       </c>
       <c r="AF17" t="n">
         <v>4.833705116626134e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>35</v>
+        <v>34.67083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1604395.817656894</v>
+        <v>1820648.024016678</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1109.855010236296</v>
+        <v>1311.956083387562</v>
       </c>
       <c r="AB2" t="n">
-        <v>1518.552588352693</v>
+        <v>1795.076192708337</v>
       </c>
       <c r="AC2" t="n">
-        <v>1373.624060622255</v>
+        <v>1623.756640281512</v>
       </c>
       <c r="AD2" t="n">
-        <v>1109855.010236296</v>
+        <v>1311956.083387562</v>
       </c>
       <c r="AE2" t="n">
-        <v>1518552.588352693</v>
+        <v>1795076.192708337</v>
       </c>
       <c r="AF2" t="n">
         <v>7.219839321225376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1373624.060622255</v>
+        <v>1623756.640281512</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>911.2616807334181</v>
+        <v>1085.761044406374</v>
       </c>
       <c r="AB3" t="n">
-        <v>1246.8284336075</v>
+        <v>1485.586161353441</v>
       </c>
       <c r="AC3" t="n">
-        <v>1127.832877838697</v>
+        <v>1343.803903147141</v>
       </c>
       <c r="AD3" t="n">
-        <v>911261.6807334181</v>
+        <v>1085761.044406374</v>
       </c>
       <c r="AE3" t="n">
-        <v>1246828.4336075</v>
+        <v>1485586.16135344</v>
       </c>
       <c r="AF3" t="n">
         <v>8.035982531893153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.38333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1127832.877838697</v>
+        <v>1343803.903147141</v>
       </c>
     </row>
     <row r="4">
@@ -14093,28 +14093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>916.5525635391388</v>
+        <v>1091.051927212095</v>
       </c>
       <c r="AB4" t="n">
-        <v>1254.067652879563</v>
+        <v>1492.825380625503</v>
       </c>
       <c r="AC4" t="n">
-        <v>1134.381196183742</v>
+        <v>1350.352221492185</v>
       </c>
       <c r="AD4" t="n">
-        <v>916552.5635391388</v>
+        <v>1091051.927212095</v>
       </c>
       <c r="AE4" t="n">
-        <v>1254067.652879563</v>
+        <v>1492825.380625503</v>
       </c>
       <c r="AF4" t="n">
         <v>8.040308379299519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1134381.196183742</v>
+        <v>1350352.221492185</v>
       </c>
     </row>
   </sheetData>
@@ -14390,28 +14390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3493.081762141841</v>
+        <v>3818.986354527663</v>
       </c>
       <c r="AB2" t="n">
-        <v>4779.388570853979</v>
+        <v>5225.305612052161</v>
       </c>
       <c r="AC2" t="n">
-        <v>4323.250433565484</v>
+        <v>4726.609778200193</v>
       </c>
       <c r="AD2" t="n">
-        <v>3493081.762141841</v>
+        <v>3818986.354527663</v>
       </c>
       <c r="AE2" t="n">
-        <v>4779388.570853979</v>
+        <v>5225305.612052161</v>
       </c>
       <c r="AF2" t="n">
         <v>2.875905502061798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.93333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4323250.433565484</v>
+        <v>4726609.778200192</v>
       </c>
     </row>
     <row r="3">
@@ -14496,28 +14496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1869.293053283355</v>
+        <v>2089.69160966073</v>
       </c>
       <c r="AB3" t="n">
-        <v>2557.649222891541</v>
+        <v>2859.208251025136</v>
       </c>
       <c r="AC3" t="n">
-        <v>2313.550770742002</v>
+        <v>2586.32942847128</v>
       </c>
       <c r="AD3" t="n">
-        <v>1869293.053283355</v>
+        <v>2089691.60966073</v>
       </c>
       <c r="AE3" t="n">
-        <v>2557649.222891541</v>
+        <v>2859208.251025136</v>
       </c>
       <c r="AF3" t="n">
         <v>4.219070343838205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2313550.770742002</v>
+        <v>2586329.42847128</v>
       </c>
     </row>
     <row r="4">
@@ -14602,28 +14602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1562.551885464101</v>
+        <v>1763.840874081993</v>
       </c>
       <c r="AB4" t="n">
-        <v>2137.952424615987</v>
+        <v>2413.364899086429</v>
       </c>
       <c r="AC4" t="n">
-        <v>1933.90924584571</v>
+        <v>2183.036740296529</v>
       </c>
       <c r="AD4" t="n">
-        <v>1562551.885464101</v>
+        <v>1763840.874081993</v>
       </c>
       <c r="AE4" t="n">
-        <v>2137952.424615987</v>
+        <v>2413364.899086429</v>
       </c>
       <c r="AF4" t="n">
         <v>4.694578484353644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>1933909.24584571</v>
+        <v>2183036.740296529</v>
       </c>
     </row>
     <row r="5">
@@ -14708,28 +14708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1431.727590694898</v>
+        <v>1623.428135529197</v>
       </c>
       <c r="AB5" t="n">
-        <v>1958.952852952214</v>
+        <v>2221.245995625659</v>
       </c>
       <c r="AC5" t="n">
-        <v>1771.993142074052</v>
+        <v>2009.253395341481</v>
       </c>
       <c r="AD5" t="n">
-        <v>1431727.590694898</v>
+        <v>1623428.135529197</v>
       </c>
       <c r="AE5" t="n">
-        <v>1958952.852952214</v>
+        <v>2221245.995625659</v>
       </c>
       <c r="AF5" t="n">
         <v>4.933004809286926e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.85416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1771993.142074052</v>
+        <v>2009253.395341481</v>
       </c>
     </row>
     <row r="6">
@@ -14814,28 +14814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1349.861500939159</v>
+        <v>1532.007767408646</v>
       </c>
       <c r="AB6" t="n">
-        <v>1846.940057271431</v>
+        <v>2096.160614781127</v>
       </c>
       <c r="AC6" t="n">
-        <v>1670.670690402096</v>
+        <v>1896.105987686316</v>
       </c>
       <c r="AD6" t="n">
-        <v>1349861.500939159</v>
+        <v>1532007.767408646</v>
       </c>
       <c r="AE6" t="n">
-        <v>1846940.057271431</v>
+        <v>2096160.614781127</v>
       </c>
       <c r="AF6" t="n">
         <v>5.085830705531756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.71666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1670670.690402096</v>
+        <v>1896105.987686316</v>
       </c>
     </row>
     <row r="7">
@@ -14920,28 +14920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1288.031208985745</v>
+        <v>1470.143310036452</v>
       </c>
       <c r="AB7" t="n">
-        <v>1762.341124060806</v>
+        <v>2011.514934937254</v>
       </c>
       <c r="AC7" t="n">
-        <v>1594.145760641744</v>
+        <v>1819.538772725784</v>
       </c>
       <c r="AD7" t="n">
-        <v>1288031.208985745</v>
+        <v>1470143.310036452</v>
       </c>
       <c r="AE7" t="n">
-        <v>1762341.124060806</v>
+        <v>2011514.934937254</v>
       </c>
       <c r="AF7" t="n">
         <v>5.191150604703413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.97083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1594145.760641744</v>
+        <v>1819538.772725784</v>
       </c>
     </row>
     <row r="8">
@@ -15026,28 +15026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1248.513641829809</v>
+        <v>1421.004144707999</v>
       </c>
       <c r="AB8" t="n">
-        <v>1708.271445286034</v>
+        <v>1944.280561067891</v>
       </c>
       <c r="AC8" t="n">
-        <v>1545.236416121965</v>
+        <v>1758.721153134477</v>
       </c>
       <c r="AD8" t="n">
-        <v>1248513.641829809</v>
+        <v>1421004.144707999</v>
       </c>
       <c r="AE8" t="n">
-        <v>1708271.445286034</v>
+        <v>1944280.561067891</v>
       </c>
       <c r="AF8" t="n">
         <v>5.261065090962044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.49166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1545236.416121966</v>
+        <v>1758721.153134477</v>
       </c>
     </row>
     <row r="9">
@@ -15132,28 +15132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1213.285612492102</v>
+        <v>1385.776115370291</v>
       </c>
       <c r="AB9" t="n">
-        <v>1660.070901395214</v>
+        <v>1896.080017177071</v>
       </c>
       <c r="AC9" t="n">
-        <v>1501.636064490197</v>
+        <v>1715.120801502709</v>
       </c>
       <c r="AD9" t="n">
-        <v>1213285.612492101</v>
+        <v>1385776.115370291</v>
       </c>
       <c r="AE9" t="n">
-        <v>1660070.901395214</v>
+        <v>1896080.017177071</v>
       </c>
       <c r="AF9" t="n">
         <v>5.316638144141983e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1501636.064490197</v>
+        <v>1715120.801502709</v>
       </c>
     </row>
     <row r="10">
@@ -15238,28 +15238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1181.902339773276</v>
+        <v>1354.46016245917</v>
       </c>
       <c r="AB10" t="n">
-        <v>1617.13092312904</v>
+        <v>1853.232148841739</v>
       </c>
       <c r="AC10" t="n">
-        <v>1462.794217483109</v>
+        <v>1676.36227358394</v>
       </c>
       <c r="AD10" t="n">
-        <v>1181902.339773276</v>
+        <v>1354460.16245917</v>
       </c>
       <c r="AE10" t="n">
-        <v>1617130.92312904</v>
+        <v>1853232.148841739</v>
       </c>
       <c r="AF10" t="n">
         <v>5.348010029001626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.91666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1462794.217483109</v>
+        <v>1676362.27358394</v>
       </c>
     </row>
     <row r="11">
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1180.440796778296</v>
+        <v>1352.99861946419</v>
       </c>
       <c r="AB11" t="n">
-        <v>1615.131175524582</v>
+        <v>1851.232401237281</v>
       </c>
       <c r="AC11" t="n">
-        <v>1460.985322983358</v>
+        <v>1674.553379084188</v>
       </c>
       <c r="AD11" t="n">
-        <v>1180440.796778296</v>
+        <v>1352998.61946419</v>
       </c>
       <c r="AE11" t="n">
-        <v>1615131.175524582</v>
+        <v>1851232.401237281</v>
       </c>
       <c r="AF11" t="n">
         <v>5.351147217487589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>34.89583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1460985.322983358</v>
+        <v>1674553.379084188</v>
       </c>
     </row>
     <row r="12">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1183.722897334885</v>
+        <v>1356.280720020779</v>
       </c>
       <c r="AB12" t="n">
-        <v>1619.621890302165</v>
+        <v>1855.723116014863</v>
       </c>
       <c r="AC12" t="n">
-        <v>1465.047450245325</v>
+        <v>1678.615506346155</v>
       </c>
       <c r="AD12" t="n">
-        <v>1183722.897334885</v>
+        <v>1356280.720020779</v>
       </c>
       <c r="AE12" t="n">
-        <v>1619621.890302165</v>
+        <v>1855723.116014863</v>
       </c>
       <c r="AF12" t="n">
         <v>5.356077085108391e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>35</v>
+        <v>34.86666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1465047.450245325</v>
+        <v>1678615.506346155</v>
       </c>
     </row>
   </sheetData>
@@ -15747,28 +15747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4364.973029458454</v>
+        <v>4721.927724850097</v>
       </c>
       <c r="AB2" t="n">
-        <v>5972.348667924618</v>
+        <v>6460.749829889233</v>
       </c>
       <c r="AC2" t="n">
-        <v>5402.356093301669</v>
+        <v>5844.144933843698</v>
       </c>
       <c r="AD2" t="n">
-        <v>4364973.029458454</v>
+        <v>4721927.724850097</v>
       </c>
       <c r="AE2" t="n">
-        <v>5972348.667924618</v>
+        <v>6460749.829889233</v>
       </c>
       <c r="AF2" t="n">
         <v>2.446822013961525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5402356.093301669</v>
+        <v>5844144.933843697</v>
       </c>
     </row>
     <row r="3">
@@ -15853,28 +15853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2109.383603142842</v>
+        <v>2340.874122899897</v>
       </c>
       <c r="AB3" t="n">
-        <v>2886.151705256801</v>
+        <v>3202.887247029548</v>
       </c>
       <c r="AC3" t="n">
-        <v>2610.701437246451</v>
+        <v>2897.208183453411</v>
       </c>
       <c r="AD3" t="n">
-        <v>2109383.603142842</v>
+        <v>2340874.122899897</v>
       </c>
       <c r="AE3" t="n">
-        <v>2886151.705256801</v>
+        <v>3202887.247029548</v>
       </c>
       <c r="AF3" t="n">
         <v>3.814910256207647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.20416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2610701.437246451</v>
+        <v>2897208.183453411</v>
       </c>
     </row>
     <row r="4">
@@ -15959,28 +15959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1729.141232011415</v>
+        <v>1941.362725290531</v>
       </c>
       <c r="AB4" t="n">
-        <v>2365.887317965296</v>
+        <v>2656.258127621291</v>
       </c>
       <c r="AC4" t="n">
-        <v>2140.090352882394</v>
+        <v>2402.748580002811</v>
       </c>
       <c r="AD4" t="n">
-        <v>1729141.232011415</v>
+        <v>1941362.725290532</v>
       </c>
       <c r="AE4" t="n">
-        <v>2365887.317965297</v>
+        <v>2656258.127621291</v>
       </c>
       <c r="AF4" t="n">
         <v>4.305628364125242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2140090.352882394</v>
+        <v>2402748.580002811</v>
       </c>
     </row>
     <row r="5">
@@ -16065,28 +16065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1570.849792161332</v>
+        <v>1763.83743541115</v>
       </c>
       <c r="AB5" t="n">
-        <v>2149.305986636945</v>
+        <v>2413.360194145277</v>
       </c>
       <c r="AC5" t="n">
-        <v>1944.179239842213</v>
+        <v>2183.032484388358</v>
       </c>
       <c r="AD5" t="n">
-        <v>1570849.792161332</v>
+        <v>1763837.43541115</v>
       </c>
       <c r="AE5" t="n">
-        <v>2149305.986636945</v>
+        <v>2413360.194145277</v>
       </c>
       <c r="AF5" t="n">
         <v>4.561563239375367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.64166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1944179.239842213</v>
+        <v>2183032.484388357</v>
       </c>
     </row>
     <row r="6">
@@ -16171,28 +16171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1481.035405467991</v>
+        <v>1664.304638476675</v>
       </c>
       <c r="AB6" t="n">
-        <v>2026.417980432023</v>
+        <v>2277.175030302435</v>
       </c>
       <c r="AC6" t="n">
-        <v>1833.019492475089</v>
+        <v>2059.844641445598</v>
       </c>
       <c r="AD6" t="n">
-        <v>1481035.405467991</v>
+        <v>1664304.638476675</v>
       </c>
       <c r="AE6" t="n">
-        <v>2026417.980432023</v>
+        <v>2277175.030302435</v>
       </c>
       <c r="AF6" t="n">
         <v>4.718508427338666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.35833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1833019.492475089</v>
+        <v>2059844.641445598</v>
       </c>
     </row>
     <row r="7">
@@ -16277,28 +16277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1415.717343746161</v>
+        <v>1599.053896562549</v>
       </c>
       <c r="AB7" t="n">
-        <v>1937.046926754708</v>
+        <v>2187.896086555961</v>
       </c>
       <c r="AC7" t="n">
-        <v>1752.177886727674</v>
+        <v>1979.086354786503</v>
       </c>
       <c r="AD7" t="n">
-        <v>1415717.343746161</v>
+        <v>1599053.896562549</v>
       </c>
       <c r="AE7" t="n">
-        <v>1937046.926754707</v>
+        <v>2187896.086555961</v>
       </c>
       <c r="AF7" t="n">
         <v>4.824689673103595e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.53333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1752177.886727674</v>
+        <v>1979086.354786503</v>
       </c>
     </row>
     <row r="8">
@@ -16383,28 +16383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1362.442917904092</v>
+        <v>1545.7453053017</v>
       </c>
       <c r="AB8" t="n">
-        <v>1864.154507015797</v>
+        <v>2114.956920183802</v>
       </c>
       <c r="AC8" t="n">
-        <v>1686.242217223491</v>
+        <v>1913.10840008214</v>
       </c>
       <c r="AD8" t="n">
-        <v>1362442.917904092</v>
+        <v>1545745.3053017</v>
       </c>
       <c r="AE8" t="n">
-        <v>1864154.507015797</v>
+        <v>2114956.920183802</v>
       </c>
       <c r="AF8" t="n">
         <v>4.903796816362724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.94583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1686242.217223492</v>
+        <v>1913108.40008214</v>
       </c>
     </row>
     <row r="9">
@@ -16489,28 +16489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1328.535282753218</v>
+        <v>1502.254910554957</v>
       </c>
       <c r="AB9" t="n">
-        <v>1817.760584703082</v>
+        <v>2055.451443430504</v>
       </c>
       <c r="AC9" t="n">
-        <v>1644.276065742024</v>
+        <v>1859.282042513716</v>
       </c>
       <c r="AD9" t="n">
-        <v>1328535.282753218</v>
+        <v>1502254.910554957</v>
       </c>
       <c r="AE9" t="n">
-        <v>1817760.584703082</v>
+        <v>2055451.443430504</v>
       </c>
       <c r="AF9" t="n">
         <v>4.958791087077626e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.54583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1644276.065742024</v>
+        <v>1859282.042513716</v>
       </c>
     </row>
     <row r="10">
@@ -16595,28 +16595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1295.344404914699</v>
+        <v>1468.962547489953</v>
       </c>
       <c r="AB10" t="n">
-        <v>1772.347361366235</v>
+        <v>2009.899363529568</v>
       </c>
       <c r="AC10" t="n">
-        <v>1603.197016702585</v>
+        <v>1818.077389185779</v>
       </c>
       <c r="AD10" t="n">
-        <v>1295344.404914699</v>
+        <v>1468962.547489953</v>
       </c>
       <c r="AE10" t="n">
-        <v>1772347.361366235</v>
+        <v>2009899.363529568</v>
       </c>
       <c r="AF10" t="n">
         <v>5.004478635056161e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.22083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1603197.016702585</v>
+        <v>1818077.389185779</v>
       </c>
     </row>
     <row r="11">
@@ -16701,28 +16701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1257.381863229973</v>
+        <v>1431.067325612931</v>
       </c>
       <c r="AB11" t="n">
-        <v>1720.405337044054</v>
+        <v>1958.049449138228</v>
       </c>
       <c r="AC11" t="n">
-        <v>1556.212266280624</v>
+        <v>1771.175957852137</v>
       </c>
       <c r="AD11" t="n">
-        <v>1257381.863229973</v>
+        <v>1431067.325612931</v>
       </c>
       <c r="AE11" t="n">
-        <v>1720405.337044054</v>
+        <v>1958049.449138228</v>
       </c>
       <c r="AF11" t="n">
         <v>5.042128558853287e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>34.95833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1556212.266280624</v>
+        <v>1771175.957852137</v>
       </c>
     </row>
     <row r="12">
@@ -16807,28 +16807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1237.528437702291</v>
+        <v>1411.213900085249</v>
       </c>
       <c r="AB12" t="n">
-        <v>1693.241004365761</v>
+        <v>1930.885116459935</v>
       </c>
       <c r="AC12" t="n">
-        <v>1531.640459387767</v>
+        <v>1746.60415095928</v>
       </c>
       <c r="AD12" t="n">
-        <v>1237528.437702291</v>
+        <v>1411213.900085249</v>
       </c>
       <c r="AE12" t="n">
-        <v>1693241.004365761</v>
+        <v>1930885.116459935</v>
       </c>
       <c r="AF12" t="n">
         <v>5.060742004326023e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>35</v>
+        <v>34.82916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1531640.459387767</v>
+        <v>1746604.15095928</v>
       </c>
     </row>
     <row r="13">
@@ -16913,28 +16913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1235.686007378503</v>
+        <v>1409.371469761461</v>
       </c>
       <c r="AB13" t="n">
-        <v>1690.720109914465</v>
+        <v>1928.364222008639</v>
       </c>
       <c r="AC13" t="n">
-        <v>1529.360155564805</v>
+        <v>1744.323847136318</v>
       </c>
       <c r="AD13" t="n">
-        <v>1235686.007378503</v>
+        <v>1409371.469761461</v>
       </c>
       <c r="AE13" t="n">
-        <v>1690720.109914464</v>
+        <v>1928364.222008639</v>
       </c>
       <c r="AF13" t="n">
         <v>5.071317825617351e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>34.75833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1529360.155564805</v>
+        <v>1744323.847136318</v>
       </c>
     </row>
     <row r="14">
@@ -17019,28 +17019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1238.562237732211</v>
+        <v>1412.247700115169</v>
       </c>
       <c r="AB14" t="n">
-        <v>1694.655495174735</v>
+        <v>1932.299607268909</v>
       </c>
       <c r="AC14" t="n">
-        <v>1532.919953179183</v>
+        <v>1747.883644750696</v>
       </c>
       <c r="AD14" t="n">
-        <v>1238562.237732211</v>
+        <v>1412247.700115169</v>
       </c>
       <c r="AE14" t="n">
-        <v>1694655.495174735</v>
+        <v>1932299.607268909</v>
       </c>
       <c r="AF14" t="n">
         <v>5.071317825617351e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>35</v>
+        <v>34.75833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1532919.953179183</v>
+        <v>1747883.644750696</v>
       </c>
     </row>
     <row r="15">
@@ -17125,28 +17125,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1242.586054944216</v>
+        <v>1416.271517327174</v>
       </c>
       <c r="AB15" t="n">
-        <v>1700.161059402488</v>
+        <v>1937.805171496662</v>
       </c>
       <c r="AC15" t="n">
-        <v>1537.900074084147</v>
+        <v>1752.86376565566</v>
       </c>
       <c r="AD15" t="n">
-        <v>1242586.054944216</v>
+        <v>1416271.517327174</v>
       </c>
       <c r="AE15" t="n">
-        <v>1700161.059402488</v>
+        <v>1937805.171496662</v>
       </c>
       <c r="AF15" t="n">
         <v>5.071317825617351e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>34.75833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1537900.074084147</v>
+        <v>1752863.76565566</v>
       </c>
     </row>
   </sheetData>
@@ -17422,28 +17422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6930.463553641043</v>
+        <v>7389.214301292947</v>
       </c>
       <c r="AB2" t="n">
-        <v>9482.565984565421</v>
+        <v>10110.2489961574</v>
       </c>
       <c r="AC2" t="n">
-        <v>8577.563195863086</v>
+        <v>9145.341021787348</v>
       </c>
       <c r="AD2" t="n">
-        <v>6930463.553641044</v>
+        <v>7389214.301292947</v>
       </c>
       <c r="AE2" t="n">
-        <v>9482565.98456542</v>
+        <v>10110248.9961574</v>
       </c>
       <c r="AF2" t="n">
         <v>1.769742190747077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8577563.195863085</v>
+        <v>9145341.021787347</v>
       </c>
     </row>
     <row r="3">
@@ -17528,28 +17528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2630.251569886941</v>
+        <v>2883.949628637726</v>
       </c>
       <c r="AB3" t="n">
-        <v>3598.826236429194</v>
+        <v>3945.947112780472</v>
       </c>
       <c r="AC3" t="n">
-        <v>3255.359311408602</v>
+        <v>3569.351458508112</v>
       </c>
       <c r="AD3" t="n">
-        <v>2630251.569886941</v>
+        <v>2883949.628637726</v>
       </c>
       <c r="AE3" t="n">
-        <v>3598826.236429194</v>
+        <v>3945947.112780472</v>
       </c>
       <c r="AF3" t="n">
         <v>3.183766970272719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3255359.311408602</v>
+        <v>3569351.458508112</v>
       </c>
     </row>
     <row r="4">
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2076.576169090968</v>
+        <v>2291.257053353451</v>
       </c>
       <c r="AB4" t="n">
-        <v>2841.263126625186</v>
+        <v>3134.998983525476</v>
       </c>
       <c r="AC4" t="n">
-        <v>2570.096961557921</v>
+        <v>2835.799080536393</v>
       </c>
       <c r="AD4" t="n">
-        <v>2076576.169090967</v>
+        <v>2291257.053353451</v>
       </c>
       <c r="AE4" t="n">
-        <v>2841263.126625186</v>
+        <v>3134998.983525475</v>
       </c>
       <c r="AF4" t="n">
         <v>3.700614754793377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>2570096.961557921</v>
+        <v>2835799.080536393</v>
       </c>
     </row>
     <row r="5">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1855.600293267589</v>
+        <v>2060.484177134518</v>
       </c>
       <c r="AB5" t="n">
-        <v>2538.914184556032</v>
+        <v>2819.245353301791</v>
       </c>
       <c r="AC5" t="n">
-        <v>2296.603778170442</v>
+        <v>2550.180533618372</v>
       </c>
       <c r="AD5" t="n">
-        <v>1855600.293267589</v>
+        <v>2060484.177134518</v>
       </c>
       <c r="AE5" t="n">
-        <v>2538914.184556032</v>
+        <v>2819245.353301791</v>
       </c>
       <c r="AF5" t="n">
         <v>3.971729106048633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.34166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2296603.778170442</v>
+        <v>2550180.533618372</v>
       </c>
     </row>
     <row r="6">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1730.357529056225</v>
+        <v>1925.580063172868</v>
       </c>
       <c r="AB6" t="n">
-        <v>2367.551509241244</v>
+        <v>2634.663593029993</v>
       </c>
       <c r="AC6" t="n">
-        <v>2141.595716078672</v>
+        <v>2383.214997484787</v>
       </c>
       <c r="AD6" t="n">
-        <v>1730357.529056225</v>
+        <v>1925580.063172868</v>
       </c>
       <c r="AE6" t="n">
-        <v>2367551.509241244</v>
+        <v>2634663.593029993</v>
       </c>
       <c r="AF6" t="n">
         <v>4.139396988527061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.70833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2141595.716078672</v>
+        <v>2383214.997484786</v>
       </c>
     </row>
     <row r="7">
@@ -17952,28 +17952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1651.477578251955</v>
+        <v>1846.665946949817</v>
       </c>
       <c r="AB7" t="n">
-        <v>2259.624480613014</v>
+        <v>2526.689817768515</v>
       </c>
       <c r="AC7" t="n">
-        <v>2043.969091586184</v>
+        <v>2285.546087792119</v>
       </c>
       <c r="AD7" t="n">
-        <v>1651477.578251955</v>
+        <v>1846665.946949817</v>
       </c>
       <c r="AE7" t="n">
-        <v>2259624.480613014</v>
+        <v>2526689.817768515</v>
       </c>
       <c r="AF7" t="n">
         <v>4.253995678844887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2043969.091586184</v>
+        <v>2285546.087792119</v>
       </c>
     </row>
     <row r="8">
@@ -18058,28 +18058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1590.226358468181</v>
+        <v>1775.686057608053</v>
       </c>
       <c r="AB8" t="n">
-        <v>2175.817859491751</v>
+        <v>2429.572001759399</v>
       </c>
       <c r="AC8" t="n">
-        <v>1968.160856761403</v>
+        <v>2197.697059837203</v>
       </c>
       <c r="AD8" t="n">
-        <v>1590226.358468181</v>
+        <v>1775686.057608053</v>
       </c>
       <c r="AE8" t="n">
-        <v>2175817.859491751</v>
+        <v>2429572.001759399</v>
       </c>
       <c r="AF8" t="n">
         <v>4.339367857538031e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.925</v>
       </c>
       <c r="AH8" t="n">
-        <v>1968160.856761403</v>
+        <v>2197697.059837203</v>
       </c>
     </row>
     <row r="9">
@@ -18164,28 +18164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1550.815063120752</v>
+        <v>1736.173277034139</v>
       </c>
       <c r="AB9" t="n">
-        <v>2121.893586493759</v>
+        <v>2375.508872197318</v>
       </c>
       <c r="AC9" t="n">
-        <v>1919.383040695147</v>
+        <v>2148.793639482448</v>
       </c>
       <c r="AD9" t="n">
-        <v>1550815.063120752</v>
+        <v>1736173.277034139</v>
       </c>
       <c r="AE9" t="n">
-        <v>2121893.586493759</v>
+        <v>2375508.872197318</v>
       </c>
       <c r="AF9" t="n">
         <v>4.400897355695253e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.4125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1919383.040695147</v>
+        <v>2148793.639482448</v>
       </c>
     </row>
     <row r="10">
@@ -18270,28 +18270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1508.628667731001</v>
+        <v>1694.054201452092</v>
       </c>
       <c r="AB10" t="n">
-        <v>2064.172299189089</v>
+        <v>2317.87969482349</v>
       </c>
       <c r="AC10" t="n">
-        <v>1867.1705920385</v>
+        <v>2096.66450991412</v>
       </c>
       <c r="AD10" t="n">
-        <v>1508628.667731001</v>
+        <v>1694054.201452093</v>
       </c>
       <c r="AE10" t="n">
-        <v>2064172.299189089</v>
+        <v>2317879.69482349</v>
       </c>
       <c r="AF10" t="n">
         <v>4.451274632311476e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.99583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1867170.5920385</v>
+        <v>2096664.50991412</v>
       </c>
     </row>
     <row r="11">
@@ -18376,28 +18376,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1478.670894891298</v>
+        <v>1664.096428612389</v>
       </c>
       <c r="AB11" t="n">
-        <v>2023.182752746148</v>
+        <v>2276.890148380549</v>
       </c>
       <c r="AC11" t="n">
-        <v>1830.093030378882</v>
+        <v>2059.586948254502</v>
       </c>
       <c r="AD11" t="n">
-        <v>1478670.894891298</v>
+        <v>1664096.428612389</v>
       </c>
       <c r="AE11" t="n">
-        <v>2023182.752746148</v>
+        <v>2276890.148380549</v>
       </c>
       <c r="AF11" t="n">
         <v>4.492037924840636e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.67083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1830093.030378882</v>
+        <v>2059586.948254502</v>
       </c>
     </row>
     <row r="12">
@@ -18482,28 +18482,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1452.730430968138</v>
+        <v>1628.359975323534</v>
       </c>
       <c r="AB12" t="n">
-        <v>1987.68986559398</v>
+        <v>2227.993956409687</v>
       </c>
       <c r="AC12" t="n">
-        <v>1797.987534561938</v>
+        <v>2015.357340219104</v>
       </c>
       <c r="AD12" t="n">
-        <v>1452730.430968138</v>
+        <v>1628359.975323534</v>
       </c>
       <c r="AE12" t="n">
-        <v>1987689.86559398</v>
+        <v>2227993.956409687</v>
       </c>
       <c r="AF12" t="n">
         <v>4.527417386281038e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.39166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1797987.534561937</v>
+        <v>2015357.340219104</v>
       </c>
     </row>
     <row r="13">
@@ -18588,28 +18588,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1431.572952268029</v>
+        <v>1607.202496623426</v>
       </c>
       <c r="AB13" t="n">
-        <v>1958.741269834407</v>
+        <v>2199.045360650114</v>
       </c>
       <c r="AC13" t="n">
-        <v>1771.801752152049</v>
+        <v>1989.171557809215</v>
       </c>
       <c r="AD13" t="n">
-        <v>1431572.952268029</v>
+        <v>1607202.496623426</v>
       </c>
       <c r="AE13" t="n">
-        <v>1958741.269834407</v>
+        <v>2199045.360650114</v>
       </c>
       <c r="AF13" t="n">
         <v>4.552029185543927e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.2</v>
       </c>
       <c r="AH13" t="n">
-        <v>1771801.752152049</v>
+        <v>1989171.557809215</v>
       </c>
     </row>
     <row r="14">
@@ -18694,28 +18694,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1407.520545752598</v>
+        <v>1583.150090107994</v>
       </c>
       <c r="AB14" t="n">
-        <v>1925.831706122708</v>
+        <v>2166.135796938415</v>
       </c>
       <c r="AC14" t="n">
-        <v>1742.033031012132</v>
+        <v>1959.402836669298</v>
       </c>
       <c r="AD14" t="n">
-        <v>1407520.545752598</v>
+        <v>1583150.090107994</v>
       </c>
       <c r="AE14" t="n">
-        <v>1925831.706122708</v>
+        <v>2166135.796938415</v>
       </c>
       <c r="AF14" t="n">
         <v>4.573949069262437e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.03333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1742033.031012132</v>
+        <v>1959402.836669298</v>
       </c>
     </row>
     <row r="15">
@@ -18800,28 +18800,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1377.680627418144</v>
+        <v>1553.377491581245</v>
       </c>
       <c r="AB15" t="n">
-        <v>1885.003413413221</v>
+        <v>2125.39961415977</v>
       </c>
       <c r="AC15" t="n">
-        <v>1705.101333255969</v>
+        <v>1922.554458001454</v>
       </c>
       <c r="AD15" t="n">
-        <v>1377680.627418144</v>
+        <v>1553377.491581245</v>
       </c>
       <c r="AE15" t="n">
-        <v>1885003.413413221</v>
+        <v>2125399.61415977</v>
       </c>
       <c r="AF15" t="n">
         <v>4.597407190434877e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>34.85416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1705101.333255969</v>
+        <v>1922554.458001454</v>
       </c>
     </row>
     <row r="16">
@@ -18906,28 +18906,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1356.533633427326</v>
+        <v>1532.230497590427</v>
       </c>
       <c r="AB16" t="n">
-        <v>1856.069163295453</v>
+        <v>2096.465364042002</v>
       </c>
       <c r="AC16" t="n">
-        <v>1678.928527359966</v>
+        <v>1896.381652105451</v>
       </c>
       <c r="AD16" t="n">
-        <v>1356533.633427326</v>
+        <v>1532230.497590427</v>
       </c>
       <c r="AE16" t="n">
-        <v>1856069.163295453</v>
+        <v>2096465.364042002</v>
       </c>
       <c r="AF16" t="n">
         <v>4.615481480518561e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>35</v>
+        <v>34.71666666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1678928.527359966</v>
+        <v>1896381.652105451</v>
       </c>
     </row>
     <row r="17">
@@ -19012,28 +19012,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1348.214169510554</v>
+        <v>1523.911033673654</v>
       </c>
       <c r="AB17" t="n">
-        <v>1844.68610573568</v>
+        <v>2085.082306482229</v>
       </c>
       <c r="AC17" t="n">
-        <v>1668.631852837477</v>
+        <v>1886.084977582962</v>
       </c>
       <c r="AD17" t="n">
-        <v>1348214.169510554</v>
+        <v>1523911.033673654</v>
       </c>
       <c r="AE17" t="n">
-        <v>1844686.105735681</v>
+        <v>2085082.306482229</v>
       </c>
       <c r="AF17" t="n">
         <v>4.624710905242144e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>35</v>
+        <v>34.65</v>
       </c>
       <c r="AH17" t="n">
-        <v>1668631.852837477</v>
+        <v>1886084.977582962</v>
       </c>
     </row>
     <row r="18">
@@ -19118,28 +19118,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1347.628581610995</v>
+        <v>1523.325445774095</v>
       </c>
       <c r="AB18" t="n">
-        <v>1843.884878537189</v>
+        <v>2084.281079283738</v>
       </c>
       <c r="AC18" t="n">
-        <v>1667.90709363828</v>
+        <v>1885.360218383765</v>
       </c>
       <c r="AD18" t="n">
-        <v>1347628.581610995</v>
+        <v>1523325.445774095</v>
       </c>
       <c r="AE18" t="n">
-        <v>1843884.878537189</v>
+        <v>2084281.079283738</v>
       </c>
       <c r="AF18" t="n">
         <v>4.628941058240454e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>35</v>
+        <v>34.61666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1667907.09363828</v>
+        <v>1885360.218383765</v>
       </c>
     </row>
     <row r="19">
@@ -19224,28 +19224,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1352.535539312521</v>
+        <v>1528.232403475622</v>
       </c>
       <c r="AB19" t="n">
-        <v>1850.598794544113</v>
+        <v>2090.994995290661</v>
       </c>
       <c r="AC19" t="n">
-        <v>1673.980242924543</v>
+        <v>1891.433367670028</v>
       </c>
       <c r="AD19" t="n">
-        <v>1352535.539312521</v>
+        <v>1528232.403475621</v>
       </c>
       <c r="AE19" t="n">
-        <v>1850598.794544113</v>
+        <v>2090994.995290661</v>
       </c>
       <c r="AF19" t="n">
         <v>4.627787380150006e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>35</v>
+        <v>34.625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1673980.242924543</v>
+        <v>1891433.367670028</v>
       </c>
     </row>
     <row r="20">
@@ -19330,28 +19330,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1356.374370656554</v>
+        <v>1532.071234819654</v>
       </c>
       <c r="AB20" t="n">
-        <v>1855.851252946305</v>
+        <v>2096.247453692853</v>
       </c>
       <c r="AC20" t="n">
-        <v>1678.731414068701</v>
+        <v>1896.184538814187</v>
       </c>
       <c r="AD20" t="n">
-        <v>1356374.370656554</v>
+        <v>1532071.234819654</v>
       </c>
       <c r="AE20" t="n">
-        <v>1855851.252946305</v>
+        <v>2096247.453692853</v>
       </c>
       <c r="AF20" t="n">
         <v>4.628171939513488e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>35</v>
+        <v>34.62083333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1678731.414068701</v>
+        <v>1896184.538814187</v>
       </c>
     </row>
   </sheetData>
@@ -19627,28 +19627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2809.761570556177</v>
+        <v>3104.771075965223</v>
       </c>
       <c r="AB2" t="n">
-        <v>3844.439738767162</v>
+        <v>4248.084758968675</v>
       </c>
       <c r="AC2" t="n">
-        <v>3477.531805804141</v>
+        <v>3842.653511796949</v>
       </c>
       <c r="AD2" t="n">
-        <v>2809761.570556177</v>
+        <v>3104771.075965223</v>
       </c>
       <c r="AE2" t="n">
-        <v>3844439.738767162</v>
+        <v>4248084.758968675</v>
       </c>
       <c r="AF2" t="n">
         <v>3.392305956172409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3477531.805804141</v>
+        <v>3842653.511796949</v>
       </c>
     </row>
     <row r="3">
@@ -19733,28 +19733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1645.022295373922</v>
+        <v>1854.32096849119</v>
       </c>
       <c r="AB3" t="n">
-        <v>2250.792077792308</v>
+        <v>2537.163755957136</v>
       </c>
       <c r="AC3" t="n">
-        <v>2035.979640894332</v>
+        <v>2295.020408020283</v>
       </c>
       <c r="AD3" t="n">
-        <v>1645022.295373922</v>
+        <v>1854320.96849119</v>
       </c>
       <c r="AE3" t="n">
-        <v>2250792.077792308</v>
+        <v>2537163.755957136</v>
       </c>
       <c r="AF3" t="n">
         <v>4.703013203794704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>2035979.640894332</v>
+        <v>2295020.408020283</v>
       </c>
     </row>
     <row r="4">
@@ -19839,28 +19839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1402.733827994618</v>
+        <v>1593.094502359958</v>
       </c>
       <c r="AB4" t="n">
-        <v>1919.282307711157</v>
+        <v>2179.742180498059</v>
       </c>
       <c r="AC4" t="n">
-        <v>1736.10869799284</v>
+        <v>1971.710646078688</v>
       </c>
       <c r="AD4" t="n">
-        <v>1402733.827994618</v>
+        <v>1593094.502359958</v>
       </c>
       <c r="AE4" t="n">
-        <v>1919282.307711157</v>
+        <v>2179742.180498058</v>
       </c>
       <c r="AF4" t="n">
         <v>5.159411630911173e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.71666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1736108.69799284</v>
+        <v>1971710.646078688</v>
       </c>
     </row>
     <row r="5">
@@ -19945,28 +19945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1296.604318913941</v>
+        <v>1477.377931482371</v>
       </c>
       <c r="AB5" t="n">
-        <v>1774.07123128348</v>
+        <v>2021.413663168534</v>
       </c>
       <c r="AC5" t="n">
-        <v>1604.756362894396</v>
+        <v>1828.492780227623</v>
       </c>
       <c r="AD5" t="n">
-        <v>1296604.318913941</v>
+        <v>1477377.931482371</v>
       </c>
       <c r="AE5" t="n">
-        <v>1774071.23128348</v>
+        <v>2021413.663168533</v>
       </c>
       <c r="AF5" t="n">
         <v>5.392884355707098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.04166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1604756.362894396</v>
+        <v>1828492.780227623</v>
       </c>
     </row>
     <row r="6">
@@ -20051,28 +20051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1219.893420909403</v>
+        <v>1391.181456907407</v>
       </c>
       <c r="AB6" t="n">
-        <v>1669.111996387699</v>
+        <v>1903.475843934992</v>
       </c>
       <c r="AC6" t="n">
-        <v>1509.814290065856</v>
+        <v>1721.810780934962</v>
       </c>
       <c r="AD6" t="n">
-        <v>1219893.420909403</v>
+        <v>1391181.456907407</v>
       </c>
       <c r="AE6" t="n">
-        <v>1669111.996387699</v>
+        <v>1903475.843934992</v>
       </c>
       <c r="AF6" t="n">
         <v>5.545336771487599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.02083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1509814.290065856</v>
+        <v>1721810.780934962</v>
       </c>
     </row>
     <row r="7">
@@ -20157,28 +20157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1164.780445269078</v>
+        <v>1336.034315848302</v>
       </c>
       <c r="AB7" t="n">
-        <v>1593.703991703722</v>
+        <v>1828.021092617768</v>
       </c>
       <c r="AC7" t="n">
-        <v>1441.603119513119</v>
+        <v>1653.557325182044</v>
       </c>
       <c r="AD7" t="n">
-        <v>1164780.445269078</v>
+        <v>1336034.315848302</v>
       </c>
       <c r="AE7" t="n">
-        <v>1593703.991703722</v>
+        <v>1828021.092617768</v>
       </c>
       <c r="AF7" t="n">
         <v>5.63738351309092e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.43333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1441603.119513119</v>
+        <v>1653557.325182044</v>
       </c>
     </row>
     <row r="8">
@@ -20263,28 +20263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1132.984556503073</v>
+        <v>1304.238427082297</v>
       </c>
       <c r="AB8" t="n">
-        <v>1550.199453958463</v>
+        <v>1784.516554872508</v>
       </c>
       <c r="AC8" t="n">
-        <v>1402.250593791264</v>
+        <v>1614.20479946019</v>
       </c>
       <c r="AD8" t="n">
-        <v>1132984.556503074</v>
+        <v>1304238.427082297</v>
       </c>
       <c r="AE8" t="n">
-        <v>1550199.453958462</v>
+        <v>1784516.554872508</v>
       </c>
       <c r="AF8" t="n">
         <v>5.693474496255444e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.08333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1402250.593791264</v>
+        <v>1614204.79946019</v>
       </c>
     </row>
     <row r="9">
@@ -20369,28 +20369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1132.220987775635</v>
+        <v>1303.474858354859</v>
       </c>
       <c r="AB9" t="n">
-        <v>1549.154705539306</v>
+        <v>1783.471806453352</v>
       </c>
       <c r="AC9" t="n">
-        <v>1401.305554694919</v>
+        <v>1613.259760363845</v>
       </c>
       <c r="AD9" t="n">
-        <v>1132220.987775635</v>
+        <v>1303474.858354859</v>
       </c>
       <c r="AE9" t="n">
-        <v>1549154.705539306</v>
+        <v>1783471.806453352</v>
       </c>
       <c r="AF9" t="n">
         <v>5.69970682771817e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.04583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1401305.554694919</v>
+        <v>1613259.760363845</v>
       </c>
     </row>
     <row r="10">
@@ -20475,28 +20475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1136.149363704779</v>
+        <v>1307.403234284003</v>
       </c>
       <c r="AB10" t="n">
-        <v>1554.529682793276</v>
+        <v>1788.846783707322</v>
       </c>
       <c r="AC10" t="n">
-        <v>1406.167551663598</v>
+        <v>1618.121757332524</v>
       </c>
       <c r="AD10" t="n">
-        <v>1136149.363704779</v>
+        <v>1307403.234284003</v>
       </c>
       <c r="AE10" t="n">
-        <v>1554529.682793276</v>
+        <v>1788846.783707322</v>
       </c>
       <c r="AF10" t="n">
         <v>5.700665647943204e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.04166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1406167.551663598</v>
+        <v>1618121.757332524</v>
       </c>
     </row>
   </sheetData>
@@ -20772,28 +20772,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1999.580630336608</v>
+        <v>2243.903412694943</v>
       </c>
       <c r="AB2" t="n">
-        <v>2735.914433698036</v>
+        <v>3070.207643281316</v>
       </c>
       <c r="AC2" t="n">
-        <v>2474.80260002592</v>
+        <v>2777.191334869922</v>
       </c>
       <c r="AD2" t="n">
-        <v>1999580.630336608</v>
+        <v>2243903.412694943</v>
       </c>
       <c r="AE2" t="n">
-        <v>2735914.433698036</v>
+        <v>3070207.643281316</v>
       </c>
       <c r="AF2" t="n">
         <v>4.44983462841856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2474802.60002592</v>
+        <v>2777191.334869922</v>
       </c>
     </row>
     <row r="3">
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1316.920307419284</v>
+        <v>1514.271577323306</v>
       </c>
       <c r="AB3" t="n">
-        <v>1801.868463034647</v>
+        <v>2071.893177040882</v>
       </c>
       <c r="AC3" t="n">
-        <v>1629.900665860891</v>
+        <v>1874.154600144437</v>
       </c>
       <c r="AD3" t="n">
-        <v>1316920.307419284</v>
+        <v>1514271.577323306</v>
       </c>
       <c r="AE3" t="n">
-        <v>1801868.463034648</v>
+        <v>2071893.177040882</v>
       </c>
       <c r="AF3" t="n">
         <v>5.69434920108542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.8875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1629900.665860891</v>
+        <v>1874154.600144437</v>
       </c>
     </row>
     <row r="4">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1155.449024609703</v>
+        <v>1333.965273387507</v>
       </c>
       <c r="AB4" t="n">
-        <v>1580.93633028434</v>
+        <v>1825.190137443197</v>
       </c>
       <c r="AC4" t="n">
-        <v>1430.053985780077</v>
+        <v>1650.996552396064</v>
       </c>
       <c r="AD4" t="n">
-        <v>1155449.024609703</v>
+        <v>1333965.273387507</v>
       </c>
       <c r="AE4" t="n">
-        <v>1580936.33028434</v>
+        <v>1825190.137443196</v>
       </c>
       <c r="AF4" t="n">
         <v>6.125541065728207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.08333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1430053.985780077</v>
+        <v>1650996.552396064</v>
       </c>
     </row>
     <row r="5">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1061.415944102089</v>
+        <v>1239.965347268816</v>
       </c>
       <c r="AB5" t="n">
-        <v>1452.276121087093</v>
+        <v>1696.575291543544</v>
       </c>
       <c r="AC5" t="n">
-        <v>1313.672926372878</v>
+        <v>1534.656526877004</v>
       </c>
       <c r="AD5" t="n">
-        <v>1061415.944102089</v>
+        <v>1239965.347268817</v>
       </c>
       <c r="AE5" t="n">
-        <v>1452276.121087093</v>
+        <v>1696575.291543544</v>
       </c>
       <c r="AF5" t="n">
         <v>6.334868089777298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.85416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1313672.926372878</v>
+        <v>1534656.526877004</v>
       </c>
     </row>
     <row r="6">
@@ -21196,28 +21196,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1041.053459431053</v>
+        <v>1210.270260066695</v>
       </c>
       <c r="AB6" t="n">
-        <v>1424.415271230759</v>
+        <v>1655.945163178813</v>
       </c>
       <c r="AC6" t="n">
-        <v>1288.471076923884</v>
+        <v>1497.90408093866</v>
       </c>
       <c r="AD6" t="n">
-        <v>1041053.459431053</v>
+        <v>1210270.260066695</v>
       </c>
       <c r="AE6" t="n">
-        <v>1424415.271230759</v>
+        <v>1655945.163178813</v>
       </c>
       <c r="AF6" t="n">
         <v>6.3910157029988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.54166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1288471.076923884</v>
+        <v>1497904.08093866</v>
       </c>
     </row>
     <row r="7">
@@ -21302,28 +21302,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1043.92388238446</v>
+        <v>1213.140683020102</v>
       </c>
       <c r="AB7" t="n">
-        <v>1428.342710549734</v>
+        <v>1659.872602497788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1292.023686946451</v>
+        <v>1501.456690961228</v>
       </c>
       <c r="AD7" t="n">
-        <v>1043923.88238446</v>
+        <v>1213140.683020102</v>
       </c>
       <c r="AE7" t="n">
-        <v>1428342.710549734</v>
+        <v>1659872.602497788</v>
       </c>
       <c r="AF7" t="n">
         <v>6.397012050041872e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.50833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1292023.686946451</v>
+        <v>1501456.690961228</v>
       </c>
     </row>
   </sheetData>
@@ -39684,28 +39684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1540.086117504757</v>
+        <v>1763.293684883146</v>
       </c>
       <c r="AB2" t="n">
-        <v>2107.21376977428</v>
+        <v>2412.616210684282</v>
       </c>
       <c r="AC2" t="n">
-        <v>1906.104245080122</v>
+        <v>2182.359505664692</v>
       </c>
       <c r="AD2" t="n">
-        <v>1540086.117504757</v>
+        <v>1763293.684883146</v>
       </c>
       <c r="AE2" t="n">
-        <v>2107213.76977428</v>
+        <v>2412616.210684282</v>
       </c>
       <c r="AF2" t="n">
         <v>5.507925849904139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1906104.245080122</v>
+        <v>2182359.505664692</v>
       </c>
     </row>
     <row r="3">
@@ -39790,28 +39790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1099.135910967027</v>
+        <v>1275.881972094716</v>
       </c>
       <c r="AB3" t="n">
-        <v>1503.886243839194</v>
+        <v>1745.718002159996</v>
       </c>
       <c r="AC3" t="n">
-        <v>1360.357451444781</v>
+        <v>1579.10912616445</v>
       </c>
       <c r="AD3" t="n">
-        <v>1099135.910967027</v>
+        <v>1275881.972094716</v>
       </c>
       <c r="AE3" t="n">
-        <v>1503886.243839194</v>
+        <v>1745718.002159996</v>
       </c>
       <c r="AF3" t="n">
         <v>6.696197948899798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.09166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1360357.45144478</v>
+        <v>1579109.12616445</v>
       </c>
     </row>
     <row r="4">
@@ -39896,28 +39896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>985.0824894048556</v>
+        <v>1152.522583114893</v>
       </c>
       <c r="AB4" t="n">
-        <v>1347.83332077599</v>
+        <v>1576.932243925653</v>
       </c>
       <c r="AC4" t="n">
-        <v>1219.198000337076</v>
+        <v>1426.432043803693</v>
       </c>
       <c r="AD4" t="n">
-        <v>985082.4894048555</v>
+        <v>1152522.583114892</v>
       </c>
       <c r="AE4" t="n">
-        <v>1347833.32077599</v>
+        <v>1576932.243925653</v>
       </c>
       <c r="AF4" t="n">
         <v>7.043925178281319e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.2125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1219198.000337076</v>
+        <v>1426432.043803693</v>
       </c>
     </row>
     <row r="5">
@@ -40002,28 +40002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>984.3048778046686</v>
+        <v>1151.744971514706</v>
       </c>
       <c r="AB5" t="n">
-        <v>1346.769358278812</v>
+        <v>1575.868281428475</v>
       </c>
       <c r="AC5" t="n">
-        <v>1218.235580927347</v>
+        <v>1425.469624393965</v>
       </c>
       <c r="AD5" t="n">
-        <v>984304.8778046686</v>
+        <v>1151744.971514706</v>
       </c>
       <c r="AE5" t="n">
-        <v>1346769.358278812</v>
+        <v>1575868.281428475</v>
       </c>
       <c r="AF5" t="n">
         <v>7.061066661419845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1218235.580927347</v>
+        <v>1425469.624393965</v>
       </c>
     </row>
   </sheetData>
@@ -40299,28 +40299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.199872806465</v>
+        <v>1089.452696623758</v>
       </c>
       <c r="AB2" t="n">
-        <v>1241.270888807524</v>
+        <v>1490.637242781467</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.805737314368</v>
+        <v>1348.372916452914</v>
       </c>
       <c r="AD2" t="n">
-        <v>907199.872806465</v>
+        <v>1089452.696623758</v>
       </c>
       <c r="AE2" t="n">
-        <v>1241270.888807524</v>
+        <v>1490637.242781467</v>
       </c>
       <c r="AF2" t="n">
         <v>8.550276379987199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122805.737314368</v>
+        <v>1348372.916452914</v>
       </c>
     </row>
     <row r="3">
@@ -40405,28 +40405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>877.6892818406154</v>
+        <v>1060.009425465614</v>
       </c>
       <c r="AB3" t="n">
-        <v>1200.89319633266</v>
+        <v>1450.351660237445</v>
       </c>
       <c r="AC3" t="n">
-        <v>1086.281635138857</v>
+        <v>1311.932133365722</v>
       </c>
       <c r="AD3" t="n">
-        <v>877689.2818406154</v>
+        <v>1060009.425465614</v>
       </c>
       <c r="AE3" t="n">
-        <v>1200893.19633266</v>
+        <v>1450351.660237445</v>
       </c>
       <c r="AF3" t="n">
         <v>8.723549026324059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.675</v>
       </c>
       <c r="AH3" t="n">
-        <v>1086281.635138857</v>
+        <v>1311932.133365722</v>
       </c>
     </row>
   </sheetData>
@@ -40702,28 +40702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3904.606584171376</v>
+        <v>4241.186165253712</v>
       </c>
       <c r="AB2" t="n">
-        <v>5342.454987548639</v>
+        <v>5802.978019228656</v>
       </c>
       <c r="AC2" t="n">
-        <v>4832.578581719464</v>
+        <v>5249.149941604057</v>
       </c>
       <c r="AD2" t="n">
-        <v>3904606.584171376</v>
+        <v>4241186.165253712</v>
       </c>
       <c r="AE2" t="n">
-        <v>5342454.987548639</v>
+        <v>5802978.019228656</v>
       </c>
       <c r="AF2" t="n">
         <v>2.652018172742238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4832578.581719464</v>
+        <v>5249149.941604057</v>
       </c>
     </row>
     <row r="3">
@@ -40808,28 +40808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1987.330344781696</v>
+        <v>2208.498868976209</v>
       </c>
       <c r="AB3" t="n">
-        <v>2719.15305255735</v>
+        <v>3021.765584627109</v>
       </c>
       <c r="AC3" t="n">
-        <v>2459.640901576554</v>
+        <v>2733.372518304819</v>
       </c>
       <c r="AD3" t="n">
-        <v>1987330.344781696</v>
+        <v>2208498.868976209</v>
       </c>
       <c r="AE3" t="n">
-        <v>2719153.05255735</v>
+        <v>3021765.584627109</v>
       </c>
       <c r="AF3" t="n">
         <v>4.008692714448494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.21250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>2459640.901576554</v>
+        <v>2733372.518304819</v>
       </c>
     </row>
     <row r="4">
@@ -40914,28 +40914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1652.339078209614</v>
+        <v>1854.232566600909</v>
       </c>
       <c r="AB4" t="n">
-        <v>2260.803222861779</v>
+        <v>2537.042800590838</v>
       </c>
       <c r="AC4" t="n">
-        <v>2045.035336329102</v>
+        <v>2294.910996464383</v>
       </c>
       <c r="AD4" t="n">
-        <v>1652339.078209614</v>
+        <v>1854232.566600909</v>
       </c>
       <c r="AE4" t="n">
-        <v>2260803.222861779</v>
+        <v>2537042.800590838</v>
       </c>
       <c r="AF4" t="n">
         <v>4.487595782873818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.3875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2045035.336329102</v>
+        <v>2294910.996464382</v>
       </c>
     </row>
     <row r="5">
@@ -41020,28 +41020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1505.248742821146</v>
+        <v>1687.969691665568</v>
       </c>
       <c r="AB5" t="n">
-        <v>2059.547736815663</v>
+        <v>2309.554600103941</v>
       </c>
       <c r="AC5" t="n">
-        <v>1862.987391407378</v>
+        <v>2089.133950550261</v>
       </c>
       <c r="AD5" t="n">
-        <v>1505248.742821146</v>
+        <v>1687969.691665568</v>
       </c>
       <c r="AE5" t="n">
-        <v>2059547.736815663</v>
+        <v>2309554.600103941</v>
       </c>
       <c r="AF5" t="n">
         <v>4.741618845508141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.225</v>
       </c>
       <c r="AH5" t="n">
-        <v>1862987.391407378</v>
+        <v>2089133.95055026</v>
       </c>
     </row>
     <row r="6">
@@ -41126,28 +41126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1421.749042429247</v>
+        <v>1604.435825854888</v>
       </c>
       <c r="AB6" t="n">
-        <v>1945.299762992671</v>
+        <v>2195.259879647702</v>
       </c>
       <c r="AC6" t="n">
-        <v>1759.643083858015</v>
+        <v>1985.747357800717</v>
       </c>
       <c r="AD6" t="n">
-        <v>1421749.042429247</v>
+        <v>1604435.825854888</v>
       </c>
       <c r="AE6" t="n">
-        <v>1945299.762992671</v>
+        <v>2195259.879647702</v>
       </c>
       <c r="AF6" t="n">
         <v>4.894728636684993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.02916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1759643.083858015</v>
+        <v>1985747.357800717</v>
       </c>
     </row>
     <row r="7">
@@ -41232,28 +41232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1361.755992803746</v>
+        <v>1534.856506455952</v>
       </c>
       <c r="AB7" t="n">
-        <v>1863.214625788507</v>
+        <v>2100.058385223148</v>
       </c>
       <c r="AC7" t="n">
-        <v>1685.392036941403</v>
+        <v>1899.631760387905</v>
       </c>
       <c r="AD7" t="n">
-        <v>1361755.992803747</v>
+        <v>1534856.506455952</v>
       </c>
       <c r="AE7" t="n">
-        <v>1863214.625788507</v>
+        <v>2100058.385223148</v>
       </c>
       <c r="AF7" t="n">
         <v>4.99433699514948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.29166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1685392.036941403</v>
+        <v>1899631.760387905</v>
       </c>
     </row>
     <row r="8">
@@ -41338,28 +41338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1306.412332196834</v>
+        <v>1489.132270011399</v>
       </c>
       <c r="AB8" t="n">
-        <v>1787.490987756141</v>
+        <v>2037.496467708766</v>
       </c>
       <c r="AC8" t="n">
-        <v>1616.895356644052</v>
+        <v>1843.040664474893</v>
       </c>
       <c r="AD8" t="n">
-        <v>1306412.332196834</v>
+        <v>1489132.270011398</v>
       </c>
       <c r="AE8" t="n">
-        <v>1787490.987756141</v>
+        <v>2037496.467708766</v>
       </c>
       <c r="AF8" t="n">
         <v>5.073501716723875e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.725</v>
       </c>
       <c r="AH8" t="n">
-        <v>1616895.356644052</v>
+        <v>1843040.664474893</v>
       </c>
     </row>
     <row r="9">
@@ -41444,28 +41444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1269.890044185863</v>
+        <v>1442.956392419288</v>
       </c>
       <c r="AB9" t="n">
-        <v>1737.519582049901</v>
+        <v>1974.316594851294</v>
       </c>
       <c r="AC9" t="n">
-        <v>1571.693151763107</v>
+        <v>1785.890590009431</v>
       </c>
       <c r="AD9" t="n">
-        <v>1269890.044185863</v>
+        <v>1442956.392419287</v>
       </c>
       <c r="AE9" t="n">
-        <v>1737519.582049901</v>
+        <v>1974316.594851294</v>
       </c>
       <c r="AF9" t="n">
         <v>5.133527714401163e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.30416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1571693.151763107</v>
+        <v>1785890.59000943</v>
       </c>
     </row>
     <row r="10">
@@ -41550,28 +41550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1239.856147777626</v>
+        <v>1412.922496011051</v>
       </c>
       <c r="AB10" t="n">
-        <v>1696.425879982155</v>
+        <v>1933.222892783549</v>
       </c>
       <c r="AC10" t="n">
-        <v>1534.521374945334</v>
+        <v>1748.718813191657</v>
       </c>
       <c r="AD10" t="n">
-        <v>1239856.147777626</v>
+        <v>1412922.496011051</v>
       </c>
       <c r="AE10" t="n">
-        <v>1696425.879982156</v>
+        <v>1933222.892783548</v>
       </c>
       <c r="AF10" t="n">
         <v>5.173110075188361e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.03333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1534521.374945334</v>
+        <v>1748718.813191657</v>
       </c>
     </row>
     <row r="11">
@@ -41656,28 +41656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1211.583150514529</v>
+        <v>1384.716818555657</v>
       </c>
       <c r="AB11" t="n">
-        <v>1657.741517810177</v>
+        <v>1894.630640542412</v>
       </c>
       <c r="AC11" t="n">
-        <v>1499.528994005206</v>
+        <v>1713.809751339849</v>
       </c>
       <c r="AD11" t="n">
-        <v>1211583.150514529</v>
+        <v>1384716.818555657</v>
       </c>
       <c r="AE11" t="n">
-        <v>1657741.517810177</v>
+        <v>1894630.640542412</v>
       </c>
       <c r="AF11" t="n">
         <v>5.200078277043374e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>34.85</v>
       </c>
       <c r="AH11" t="n">
-        <v>1499528.994005206</v>
+        <v>1713809.751339849</v>
       </c>
     </row>
     <row r="12">
@@ -41762,28 +41762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1206.141648730207</v>
+        <v>1379.275316771336</v>
       </c>
       <c r="AB12" t="n">
-        <v>1650.296215006753</v>
+        <v>1887.185337738988</v>
       </c>
       <c r="AC12" t="n">
-        <v>1492.794260451793</v>
+        <v>1707.075017786435</v>
       </c>
       <c r="AD12" t="n">
-        <v>1206141.648730207</v>
+        <v>1379275.316771336</v>
       </c>
       <c r="AE12" t="n">
-        <v>1650296.215006753</v>
+        <v>1887185.337738988</v>
       </c>
       <c r="AF12" t="n">
         <v>5.208342725998944e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="AH12" t="n">
-        <v>1492794.260451793</v>
+        <v>1707075.017786435</v>
       </c>
     </row>
     <row r="13">
@@ -41868,28 +41868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1210.708606160931</v>
+        <v>1383.84227420206</v>
       </c>
       <c r="AB13" t="n">
-        <v>1656.544927643411</v>
+        <v>1893.434050375646</v>
       </c>
       <c r="AC13" t="n">
-        <v>1498.446604724532</v>
+        <v>1712.727362059174</v>
       </c>
       <c r="AD13" t="n">
-        <v>1210708.606160931</v>
+        <v>1383842.27420206</v>
       </c>
       <c r="AE13" t="n">
-        <v>1656544.927643412</v>
+        <v>1893434.050375646</v>
       </c>
       <c r="AF13" t="n">
         <v>5.208342725998944e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="AH13" t="n">
-        <v>1498446.604724532</v>
+        <v>1712727.362059174</v>
       </c>
     </row>
   </sheetData>
@@ -42165,28 +42165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6139.928838190005</v>
+        <v>6568.157489016195</v>
       </c>
       <c r="AB2" t="n">
-        <v>8400.92151095502</v>
+        <v>8986.842843130184</v>
       </c>
       <c r="AC2" t="n">
-        <v>7599.14935271655</v>
+        <v>8129.151175294648</v>
       </c>
       <c r="AD2" t="n">
-        <v>6139928.838190005</v>
+        <v>6568157.489016195</v>
       </c>
       <c r="AE2" t="n">
-        <v>8400921.510955021</v>
+        <v>8986842.843130184</v>
       </c>
       <c r="AF2" t="n">
         <v>1.92274354296575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.17083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7599149.35271655</v>
+        <v>8129151.175294648</v>
       </c>
     </row>
     <row r="3">
@@ -42271,28 +42271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2491.928895732144</v>
+        <v>2735.235630329657</v>
       </c>
       <c r="AB3" t="n">
-        <v>3409.567051284891</v>
+        <v>3742.470059496795</v>
       </c>
       <c r="AC3" t="n">
-        <v>3084.162757267543</v>
+        <v>3385.293969607997</v>
       </c>
       <c r="AD3" t="n">
-        <v>2491928.895732144</v>
+        <v>2735235.630329657</v>
       </c>
       <c r="AE3" t="n">
-        <v>3409567.051284892</v>
+        <v>3742470.059496795</v>
       </c>
       <c r="AF3" t="n">
         <v>3.326283443196881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3084162.757267544</v>
+        <v>3385293.969607998</v>
       </c>
     </row>
     <row r="4">
@@ -42377,28 +42377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1985.886302773143</v>
+        <v>2200.051370799483</v>
       </c>
       <c r="AB4" t="n">
-        <v>2717.17725057461</v>
+        <v>3010.207344944394</v>
       </c>
       <c r="AC4" t="n">
-        <v>2457.853667361991</v>
+        <v>2722.917380795331</v>
       </c>
       <c r="AD4" t="n">
-        <v>1985886.302773143</v>
+        <v>2200051.370799483</v>
       </c>
       <c r="AE4" t="n">
-        <v>2717177.25057461</v>
+        <v>3010207.344944394</v>
       </c>
       <c r="AF4" t="n">
         <v>3.834482012504876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.70833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2457853.667361991</v>
+        <v>2722917.380795331</v>
       </c>
     </row>
     <row r="5">
@@ -42483,28 +42483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1779.262094836341</v>
+        <v>1983.656668650938</v>
       </c>
       <c r="AB5" t="n">
-        <v>2434.464893658772</v>
+        <v>2714.126566804094</v>
       </c>
       <c r="AC5" t="n">
-        <v>2202.122981000916</v>
+        <v>2455.094136568872</v>
       </c>
       <c r="AD5" t="n">
-        <v>1779262.094836341</v>
+        <v>1983656.668650938</v>
       </c>
       <c r="AE5" t="n">
-        <v>2434464.893658772</v>
+        <v>2714126.566804094</v>
       </c>
       <c r="AF5" t="n">
         <v>4.102927196447151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.9125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2202122.981000916</v>
+        <v>2455094.136568872</v>
       </c>
     </row>
     <row r="6">
@@ -42589,28 +42589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1670.080455385199</v>
+        <v>1864.671380599131</v>
       </c>
       <c r="AB6" t="n">
-        <v>2285.077757807736</v>
+        <v>2551.325646431178</v>
       </c>
       <c r="AC6" t="n">
-        <v>2066.993143729341</v>
+        <v>2307.83070754382</v>
       </c>
       <c r="AD6" t="n">
-        <v>1670080.455385199</v>
+        <v>1864671.380599131</v>
       </c>
       <c r="AE6" t="n">
-        <v>2285077.757807736</v>
+        <v>2551325.646431177</v>
       </c>
       <c r="AF6" t="n">
         <v>4.269182412856495e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.35833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2066993.143729341</v>
+        <v>2307830.70754382</v>
       </c>
     </row>
     <row r="7">
@@ -42695,28 +42695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1596.349329667688</v>
+        <v>1781.238091507441</v>
       </c>
       <c r="AB7" t="n">
-        <v>2184.19557881334</v>
+        <v>2437.168539478991</v>
       </c>
       <c r="AC7" t="n">
-        <v>1975.739018309142</v>
+        <v>2204.568594658644</v>
       </c>
       <c r="AD7" t="n">
-        <v>1596349.329667688</v>
+        <v>1781238.091507441</v>
       </c>
       <c r="AE7" t="n">
-        <v>2184195.57881334</v>
+        <v>2437168.539478991</v>
       </c>
       <c r="AF7" t="n">
         <v>4.379626185459393e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.39166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1975739.018309142</v>
+        <v>2204568.594658644</v>
       </c>
     </row>
     <row r="8">
@@ -42801,28 +42801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1540.357017368839</v>
+        <v>1725.313099016297</v>
       </c>
       <c r="AB8" t="n">
-        <v>2107.584426919576</v>
+        <v>2360.649497516068</v>
       </c>
       <c r="AC8" t="n">
-        <v>1906.439527227692</v>
+        <v>2135.352422665512</v>
       </c>
       <c r="AD8" t="n">
-        <v>1540357.017368839</v>
+        <v>1725313.099016297</v>
       </c>
       <c r="AE8" t="n">
-        <v>2107584.426919576</v>
+        <v>2360649.497516068</v>
       </c>
       <c r="AF8" t="n">
         <v>4.460199044475742e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.71666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1906439.527227692</v>
+        <v>2135352.422665512</v>
       </c>
     </row>
     <row r="9">
@@ -42907,28 +42907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1500.903407969335</v>
+        <v>1676.090006434909</v>
       </c>
       <c r="AB9" t="n">
-        <v>2053.60225796877</v>
+        <v>2293.30029067663</v>
       </c>
       <c r="AC9" t="n">
-        <v>1857.609340717102</v>
+        <v>2074.430929601624</v>
       </c>
       <c r="AD9" t="n">
-        <v>1500903.407969335</v>
+        <v>1676090.006434909</v>
       </c>
       <c r="AE9" t="n">
-        <v>2053602.25796877</v>
+        <v>2293300.29067663</v>
       </c>
       <c r="AF9" t="n">
         <v>4.523478216678825e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.20416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1857609.340717101</v>
+        <v>2074430.929601624</v>
       </c>
     </row>
     <row r="10">
@@ -43013,28 +43013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1456.480124822088</v>
+        <v>1641.402041050765</v>
       </c>
       <c r="AB10" t="n">
-        <v>1992.820362149772</v>
+        <v>2245.838686113016</v>
       </c>
       <c r="AC10" t="n">
-        <v>1802.628383727142</v>
+        <v>2031.498993964782</v>
       </c>
       <c r="AD10" t="n">
-        <v>1456480.124822088</v>
+        <v>1641402.041050765</v>
       </c>
       <c r="AE10" t="n">
-        <v>1992820.362149772</v>
+        <v>2245838.686113016</v>
       </c>
       <c r="AF10" t="n">
         <v>4.57300104709863e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1802628.383727142</v>
+        <v>2031498.993964782</v>
       </c>
     </row>
     <row r="11">
@@ -43119,28 +43119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1430.170431161257</v>
+        <v>1605.424349434535</v>
       </c>
       <c r="AB11" t="n">
-        <v>1956.822278581256</v>
+        <v>2196.612421219957</v>
       </c>
       <c r="AC11" t="n">
-        <v>1770.065906730778</v>
+        <v>1986.97081470362</v>
       </c>
       <c r="AD11" t="n">
-        <v>1430170.431161257</v>
+        <v>1605424.349434535</v>
       </c>
       <c r="AE11" t="n">
-        <v>1956822.278581256</v>
+        <v>2196612.421219958</v>
       </c>
       <c r="AF11" t="n">
         <v>4.610732727418481e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.51666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1770065.906730778</v>
+        <v>1986970.81470362</v>
       </c>
     </row>
     <row r="12">
@@ -43225,28 +43225,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1402.952773403905</v>
+        <v>1578.105206450699</v>
       </c>
       <c r="AB12" t="n">
-        <v>1919.581878479333</v>
+        <v>2159.233164553945</v>
       </c>
       <c r="AC12" t="n">
-        <v>1736.379678147352</v>
+        <v>1953.158981831696</v>
       </c>
       <c r="AD12" t="n">
-        <v>1402952.773403905</v>
+        <v>1578105.206450699</v>
       </c>
       <c r="AE12" t="n">
-        <v>1919581.878479333</v>
+        <v>2159233.164553945</v>
       </c>
       <c r="AF12" t="n">
         <v>4.648071369401667e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.23333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1736379.678147352</v>
+        <v>1953158.981831696</v>
       </c>
     </row>
     <row r="13">
@@ -43331,28 +43331,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1378.036188559791</v>
+        <v>1553.188621606584</v>
       </c>
       <c r="AB13" t="n">
-        <v>1885.489907853473</v>
+        <v>2125.141193928085</v>
       </c>
       <c r="AC13" t="n">
-        <v>1705.541397349644</v>
+        <v>1922.320701033987</v>
       </c>
       <c r="AD13" t="n">
-        <v>1378036.188559791</v>
+        <v>1553188.621606584</v>
       </c>
       <c r="AE13" t="n">
-        <v>1885489.907853473</v>
+        <v>2125141.193928085</v>
       </c>
       <c r="AF13" t="n">
         <v>4.67440493795823e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.03333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1705541.397349644</v>
+        <v>1922320.701033987</v>
       </c>
     </row>
     <row r="14">
@@ -43437,28 +43437,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1346.815394397543</v>
+        <v>1522.035147252041</v>
       </c>
       <c r="AB14" t="n">
-        <v>1842.772239916457</v>
+        <v>2082.51563592191</v>
       </c>
       <c r="AC14" t="n">
-        <v>1666.900643685912</v>
+        <v>1883.763266458575</v>
       </c>
       <c r="AD14" t="n">
-        <v>1346815.394397543</v>
+        <v>1522035.147252041</v>
       </c>
       <c r="AE14" t="n">
-        <v>1842772.239916457</v>
+        <v>2082515.63592191</v>
       </c>
       <c r="AF14" t="n">
         <v>4.695235969801482e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>35</v>
+        <v>34.87916666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1666900.643685912</v>
+        <v>1883763.266458575</v>
       </c>
     </row>
     <row r="15">
@@ -43543,28 +43543,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1330.050809580317</v>
+        <v>1505.270562434815</v>
       </c>
       <c r="AB15" t="n">
-        <v>1819.834195368244</v>
+        <v>2059.577591373697</v>
       </c>
       <c r="AC15" t="n">
-        <v>1646.151773915634</v>
+        <v>1863.014396688296</v>
       </c>
       <c r="AD15" t="n">
-        <v>1330050.809580317</v>
+        <v>1505270.562434815</v>
       </c>
       <c r="AE15" t="n">
-        <v>1819834.195368244</v>
+        <v>2059577.591373698</v>
       </c>
       <c r="AF15" t="n">
         <v>4.715280924971402e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>34.72916666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1646151.773915634</v>
+        <v>1863014.396688296</v>
       </c>
     </row>
     <row r="16">
@@ -43649,28 +43649,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1318.73263077792</v>
+        <v>1493.952383632418</v>
       </c>
       <c r="AB16" t="n">
-        <v>1804.348163807997</v>
+        <v>2044.09155981345</v>
       </c>
       <c r="AC16" t="n">
-        <v>1632.143707472714</v>
+        <v>1849.006330245377</v>
       </c>
       <c r="AD16" t="n">
-        <v>1318732.63077792</v>
+        <v>1493952.383632418</v>
       </c>
       <c r="AE16" t="n">
-        <v>1804348.163807997</v>
+        <v>2044091.55981345</v>
       </c>
       <c r="AF16" t="n">
         <v>4.723141691704705e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>35</v>
+        <v>34.675</v>
       </c>
       <c r="AH16" t="n">
-        <v>1632143.707472714</v>
+        <v>1849006.330245377</v>
       </c>
     </row>
     <row r="17">
@@ -43755,28 +43755,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1317.583387099993</v>
+        <v>1492.80313995449</v>
       </c>
       <c r="AB17" t="n">
-        <v>1802.775717906803</v>
+        <v>2042.519113912257</v>
       </c>
       <c r="AC17" t="n">
-        <v>1630.721333601389</v>
+        <v>1847.583956374051</v>
       </c>
       <c r="AD17" t="n">
-        <v>1317583.387099993</v>
+        <v>1492803.13995449</v>
       </c>
       <c r="AE17" t="n">
-        <v>1802775.717906804</v>
+        <v>2042519.113912257</v>
       </c>
       <c r="AF17" t="n">
         <v>4.727465113408021e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>35</v>
+        <v>34.64166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1630721.333601389</v>
+        <v>1847583.956374052</v>
       </c>
     </row>
     <row r="18">
@@ -43861,28 +43861,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1322.085428168936</v>
+        <v>1497.305181023434</v>
       </c>
       <c r="AB18" t="n">
-        <v>1808.935609113366</v>
+        <v>2048.679005118819</v>
       </c>
       <c r="AC18" t="n">
-        <v>1636.293333436658</v>
+        <v>1853.155956209321</v>
       </c>
       <c r="AD18" t="n">
-        <v>1322085.428168936</v>
+        <v>1497305.181023434</v>
       </c>
       <c r="AE18" t="n">
-        <v>1808935.609113366</v>
+        <v>2048679.005118819</v>
       </c>
       <c r="AF18" t="n">
         <v>4.727072075071356e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>35</v>
+        <v>34.64166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1636293.333436658</v>
+        <v>1853155.956209321</v>
       </c>
     </row>
     <row r="19">
@@ -43967,28 +43967,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1326.465419765191</v>
+        <v>1501.685172619689</v>
       </c>
       <c r="AB19" t="n">
-        <v>1814.928506846954</v>
+        <v>2054.671902852407</v>
       </c>
       <c r="AC19" t="n">
-        <v>1641.714277421638</v>
+        <v>1858.5769001943</v>
       </c>
       <c r="AD19" t="n">
-        <v>1326465.419765191</v>
+        <v>1501685.172619689</v>
       </c>
       <c r="AE19" t="n">
-        <v>1814928.506846954</v>
+        <v>2054671.902852407</v>
       </c>
       <c r="AF19" t="n">
         <v>4.727072075071356e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>35</v>
+        <v>34.64583333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1641714.277421638</v>
+        <v>1858576.9001943</v>
       </c>
     </row>
   </sheetData>
@@ -44264,28 +44264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>844.7472931678265</v>
+        <v>1034.370349680307</v>
       </c>
       <c r="AB2" t="n">
-        <v>1155.820514132579</v>
+        <v>1415.271145631794</v>
       </c>
       <c r="AC2" t="n">
-        <v>1045.510626468045</v>
+        <v>1280.199653838224</v>
       </c>
       <c r="AD2" t="n">
-        <v>844747.2931678265</v>
+        <v>1034370.349680307</v>
       </c>
       <c r="AE2" t="n">
-        <v>1155820.514132579</v>
+        <v>1415271.145631794</v>
       </c>
       <c r="AF2" t="n">
         <v>9.572740144659587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1045510.626468045</v>
+        <v>1280199.653838224</v>
       </c>
     </row>
   </sheetData>
@@ -44561,28 +44561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2244.384186613566</v>
+        <v>2508.722875870411</v>
       </c>
       <c r="AB2" t="n">
-        <v>3070.865459367024</v>
+        <v>3432.545315808183</v>
       </c>
       <c r="AC2" t="n">
-        <v>2777.786369911661</v>
+        <v>3104.948008474928</v>
       </c>
       <c r="AD2" t="n">
-        <v>2244384.186613566</v>
+        <v>2508722.875870411</v>
       </c>
       <c r="AE2" t="n">
-        <v>3070865.459367024</v>
+        <v>3432545.315808183</v>
       </c>
       <c r="AF2" t="n">
         <v>4.048430858152904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.50416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2777786.369911661</v>
+        <v>3104948.008474928</v>
       </c>
     </row>
     <row r="3">
@@ -44667,28 +44667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1423.97946445505</v>
+        <v>1622.250564107074</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.351524807649</v>
+        <v>2219.634790455126</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.403589808546</v>
+        <v>2007.795961331082</v>
       </c>
       <c r="AD3" t="n">
-        <v>1423979.46445505</v>
+        <v>1622250.564107074</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948351.524807649</v>
+        <v>2219634.790455126</v>
       </c>
       <c r="AF3" t="n">
         <v>5.320973069344263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762403.589808546</v>
+        <v>2007795.961331082</v>
       </c>
     </row>
     <row r="4">
@@ -44773,28 +44773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1236.66678698277</v>
+        <v>1425.460613355499</v>
       </c>
       <c r="AB4" t="n">
-        <v>1692.062055837965</v>
+        <v>1950.378098076921</v>
       </c>
       <c r="AC4" t="n">
-        <v>1530.5740280528</v>
+        <v>1764.236749769312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1236666.78698277</v>
+        <v>1425460.613355499</v>
       </c>
       <c r="AE4" t="n">
-        <v>1692062.055837965</v>
+        <v>1950378.098076921</v>
       </c>
       <c r="AF4" t="n">
         <v>5.757109881104699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.62083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1530574.0280528</v>
+        <v>1764236.749769312</v>
       </c>
     </row>
     <row r="5">
@@ -44879,28 +44879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1144.260895098384</v>
+        <v>1314.169516779941</v>
       </c>
       <c r="AB5" t="n">
-        <v>1565.628237901515</v>
+        <v>1798.10470992558</v>
       </c>
       <c r="AC5" t="n">
-        <v>1416.206876249226</v>
+        <v>1626.496120066092</v>
       </c>
       <c r="AD5" t="n">
-        <v>1144260.895098384</v>
+        <v>1314169.516779941</v>
       </c>
       <c r="AE5" t="n">
-        <v>1565628.237901515</v>
+        <v>1798104.70992558</v>
       </c>
       <c r="AF5" t="n">
         <v>5.976997689656147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.2375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1416206.876249226</v>
+        <v>1626496.120066092</v>
       </c>
     </row>
     <row r="6">
@@ -44985,28 +44985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1082.61294417283</v>
+        <v>1252.487400435606</v>
       </c>
       <c r="AB6" t="n">
-        <v>1481.278791729525</v>
+        <v>1713.708517120342</v>
       </c>
       <c r="AC6" t="n">
-        <v>1339.9076228347</v>
+        <v>1550.154581451386</v>
       </c>
       <c r="AD6" t="n">
-        <v>1082612.94417283</v>
+        <v>1252487.400435606</v>
       </c>
       <c r="AE6" t="n">
-        <v>1481278.791729524</v>
+        <v>1713708.517120342</v>
       </c>
       <c r="AF6" t="n">
         <v>6.10643519398076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.47083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1339907.6228347</v>
+        <v>1550154.581451386</v>
       </c>
     </row>
     <row r="7">
@@ -45091,28 +45091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1070.764159816419</v>
+        <v>1240.638616079195</v>
       </c>
       <c r="AB7" t="n">
-        <v>1465.06676224161</v>
+        <v>1697.496487632428</v>
       </c>
       <c r="AC7" t="n">
-        <v>1325.242846687386</v>
+        <v>1535.489805304072</v>
       </c>
       <c r="AD7" t="n">
-        <v>1070764.159816419</v>
+        <v>1240638.616079195</v>
       </c>
       <c r="AE7" t="n">
-        <v>1465066.76224161</v>
+        <v>1697496.487632428</v>
       </c>
       <c r="AF7" t="n">
         <v>6.129827514039424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1325242.846687386</v>
+        <v>1535489.805304072</v>
       </c>
     </row>
     <row r="8">
@@ -45197,28 +45197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1075.22405530413</v>
+        <v>1245.098511566906</v>
       </c>
       <c r="AB8" t="n">
-        <v>1471.168988004599</v>
+        <v>1703.598713395417</v>
       </c>
       <c r="AC8" t="n">
-        <v>1330.762684588082</v>
+        <v>1541.009643204769</v>
       </c>
       <c r="AD8" t="n">
-        <v>1075224.05530413</v>
+        <v>1245098.511566906</v>
       </c>
       <c r="AE8" t="n">
-        <v>1471168.988004599</v>
+        <v>1703598.713395417</v>
       </c>
       <c r="AF8" t="n">
         <v>6.129827514039424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1330762.684588082</v>
+        <v>1541009.643204769</v>
       </c>
     </row>
   </sheetData>
@@ -45494,28 +45494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3136.336369472965</v>
+        <v>3442.026373007314</v>
       </c>
       <c r="AB2" t="n">
-        <v>4291.273786108437</v>
+        <v>4709.532335035313</v>
       </c>
       <c r="AC2" t="n">
-        <v>3881.720638802672</v>
+        <v>4260.061178849511</v>
       </c>
       <c r="AD2" t="n">
-        <v>3136336.369472965</v>
+        <v>3442026.373007314</v>
       </c>
       <c r="AE2" t="n">
-        <v>4291273.786108437</v>
+        <v>4709532.335035313</v>
       </c>
       <c r="AF2" t="n">
         <v>3.119783023973001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.82083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3881720.638802672</v>
+        <v>4260061.178849511</v>
       </c>
     </row>
     <row r="3">
@@ -45600,28 +45600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1756.927037466417</v>
+        <v>1967.034407120621</v>
       </c>
       <c r="AB3" t="n">
-        <v>2403.905082812053</v>
+        <v>2691.38325525589</v>
       </c>
       <c r="AC3" t="n">
-        <v>2174.479755610444</v>
+        <v>2434.521414754391</v>
       </c>
       <c r="AD3" t="n">
-        <v>1756927.037466418</v>
+        <v>1967034.407120621</v>
       </c>
       <c r="AE3" t="n">
-        <v>2403905.082812054</v>
+        <v>2691383.25525589</v>
       </c>
       <c r="AF3" t="n">
         <v>4.446847998710477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.37083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2174479.755610445</v>
+        <v>2434521.414754391</v>
       </c>
     </row>
     <row r="4">
@@ -45706,28 +45706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1488.146771518041</v>
+        <v>1679.144245274</v>
       </c>
       <c r="AB4" t="n">
-        <v>2036.148065193029</v>
+        <v>2297.479234999782</v>
       </c>
       <c r="AC4" t="n">
-        <v>1841.820951602764</v>
+        <v>2078.21104134376</v>
       </c>
       <c r="AD4" t="n">
-        <v>1488146.771518041</v>
+        <v>1679144.245274</v>
       </c>
       <c r="AE4" t="n">
-        <v>2036148.065193029</v>
+        <v>2297479.234999781</v>
       </c>
       <c r="AF4" t="n">
         <v>4.912501073208524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.25833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1841820.951602764</v>
+        <v>2078211.04134376</v>
       </c>
     </row>
     <row r="5">
@@ -45812,28 +45812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1363.113914823081</v>
+        <v>1544.556440629918</v>
       </c>
       <c r="AB5" t="n">
-        <v>1865.072594602653</v>
+        <v>2113.330263090862</v>
       </c>
       <c r="AC5" t="n">
-        <v>1687.072683819601</v>
+        <v>1911.636988859123</v>
       </c>
       <c r="AD5" t="n">
-        <v>1363113.914823081</v>
+        <v>1544556.440629918</v>
       </c>
       <c r="AE5" t="n">
-        <v>1865072.594602653</v>
+        <v>2113330.263090862</v>
       </c>
       <c r="AF5" t="n">
         <v>5.154585126849159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.41666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1687072.683819602</v>
+        <v>1911636.988859123</v>
       </c>
     </row>
     <row r="6">
@@ -45918,28 +45918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1288.49892720252</v>
+        <v>1469.907287590576</v>
       </c>
       <c r="AB6" t="n">
-        <v>1762.981076759269</v>
+        <v>2011.191998614231</v>
       </c>
       <c r="AC6" t="n">
-        <v>1594.724637152846</v>
+        <v>1819.246656992187</v>
       </c>
       <c r="AD6" t="n">
-        <v>1288498.92720252</v>
+        <v>1469907.287590576</v>
       </c>
       <c r="AE6" t="n">
-        <v>1762981.076759269</v>
+        <v>2011191.998614231</v>
       </c>
       <c r="AF6" t="n">
         <v>5.298539506738714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>1594724.637152846</v>
+        <v>1819246.656992187</v>
       </c>
     </row>
     <row r="7">
@@ -46024,28 +46024,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1228.640136289475</v>
+        <v>1410.115816485235</v>
       </c>
       <c r="AB7" t="n">
-        <v>1681.079638248562</v>
+        <v>1929.382670034366</v>
       </c>
       <c r="AC7" t="n">
-        <v>1520.639756984209</v>
+        <v>1745.24509591187</v>
       </c>
       <c r="AD7" t="n">
-        <v>1228640.136289475</v>
+        <v>1410115.816485235</v>
       </c>
       <c r="AE7" t="n">
-        <v>1681079.638248562</v>
+        <v>1929382.670034366</v>
       </c>
       <c r="AF7" t="n">
         <v>5.400372187046439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.7125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1520639.756984209</v>
+        <v>1745245.09591187</v>
       </c>
     </row>
     <row r="8">
@@ -46130,28 +46130,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1189.964287609695</v>
+        <v>1361.851865467409</v>
       </c>
       <c r="AB8" t="n">
-        <v>1628.161635826865</v>
+        <v>1863.345802996533</v>
       </c>
       <c r="AC8" t="n">
-        <v>1472.772174442757</v>
+        <v>1685.510694780803</v>
       </c>
       <c r="AD8" t="n">
-        <v>1189964.287609695</v>
+        <v>1361851.865467409</v>
       </c>
       <c r="AE8" t="n">
-        <v>1628161.635826865</v>
+        <v>1863345.802996533</v>
       </c>
       <c r="AF8" t="n">
         <v>5.467952056705201e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.27083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1472772.174442756</v>
+        <v>1685510.694780803</v>
       </c>
     </row>
     <row r="9">
@@ -46236,28 +46236,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1162.925856643164</v>
+        <v>1334.813434500879</v>
       </c>
       <c r="AB9" t="n">
-        <v>1591.166461727071</v>
+        <v>1826.350628896739</v>
       </c>
       <c r="AC9" t="n">
-        <v>1439.307767835994</v>
+        <v>1652.046288174041</v>
       </c>
       <c r="AD9" t="n">
-        <v>1162925.856643165</v>
+        <v>1334813.434500879</v>
       </c>
       <c r="AE9" t="n">
-        <v>1591166.461727071</v>
+        <v>1826350.628896739</v>
       </c>
       <c r="AF9" t="n">
         <v>5.507759377189129e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.01666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1439307.767835994</v>
+        <v>1652046.288174041</v>
       </c>
     </row>
     <row r="10">
@@ -46342,28 +46342,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1150.792440271786</v>
+        <v>1322.747337937205</v>
       </c>
       <c r="AB10" t="n">
-        <v>1574.5649861592</v>
+        <v>1809.841263259709</v>
       </c>
       <c r="AC10" t="n">
-        <v>1424.290713796003</v>
+        <v>1637.112553222369</v>
       </c>
       <c r="AD10" t="n">
-        <v>1150792.440271786</v>
+        <v>1322747.337937205</v>
       </c>
       <c r="AE10" t="n">
-        <v>1574564.9861592</v>
+        <v>1809841.263259709</v>
       </c>
       <c r="AF10" t="n">
         <v>5.51701689358074e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.95833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1424290.713796003</v>
+        <v>1637112.553222369</v>
       </c>
     </row>
     <row r="11">
@@ -46448,28 +46448,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1154.803025392364</v>
+        <v>1326.757923057782</v>
       </c>
       <c r="AB11" t="n">
-        <v>1580.052445655702</v>
+        <v>1815.328722756212</v>
       </c>
       <c r="AC11" t="n">
-        <v>1429.254457859857</v>
+        <v>1642.076297286222</v>
       </c>
       <c r="AD11" t="n">
-        <v>1154803.025392364</v>
+        <v>1326757.923057782</v>
       </c>
       <c r="AE11" t="n">
-        <v>1580052.445655702</v>
+        <v>1815328.722756212</v>
       </c>
       <c r="AF11" t="n">
         <v>5.51701689358074e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>34.95833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1429254.457859857</v>
+        <v>1642076.297286222</v>
       </c>
     </row>
   </sheetData>
